--- a/lin-reg/Project3-lin-reg.xlsx
+++ b/lin-reg/Project3-lin-reg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\src\repo\data-sci\student-grade-regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\src\repo\data-sci\student-grade-regression\lin-reg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E701DE9-7494-42E9-9C4C-60BD7B3D0061}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9130D198-CA42-4B87-A060-322680F5560C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2310" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2310" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Training" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>Midterm</t>
   </si>
@@ -84,18 +84,6 @@
   </si>
   <si>
     <t>W</t>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>(ykXk)/(1+e^(yk*trsf(Wt)Xk))</t>
-  </si>
-  <si>
-    <t>g0:</t>
-  </si>
-  <si>
-    <t>w1</t>
   </si>
 </sst>
 </file>
@@ -504,9 +492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:LS356"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:R332"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -515,7 +501,7 @@
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -531,17 +517,11 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -557,28 +537,8 @@
       <c r="E2" s="3">
         <v>20</v>
       </c>
-      <c r="G2">
-        <f>IF(E2&gt;=70, 1, -1)</f>
-        <v>-1</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" cm="1">
-        <f t="array" ref="J2:M2">(G2*A2:D2)/(1+EXP(G2*TRANSPOSE($I$2:$I$5)*A2:D2))</f>
-        <v>-0.5</v>
-      </c>
-      <c r="K2">
-        <v>-28</v>
-      </c>
-      <c r="L2">
-        <v>-12.5</v>
-      </c>
-      <c r="M2">
-        <v>-12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -594,28 +554,8 @@
       <c r="E3" s="3">
         <v>23</v>
       </c>
-      <c r="G3">
-        <f>IF(E3&gt;=70, 1, -1)</f>
-        <v>-1</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" cm="1">
-        <f t="array" ref="J3:M3">(G3*A3:D3)/(1+EXP(G3*TRANSPOSE($I$2:$I$5)*A3:D3))</f>
-        <v>-0.5</v>
-      </c>
-      <c r="K3">
-        <v>-20</v>
-      </c>
-      <c r="L3">
-        <v>-8</v>
-      </c>
-      <c r="M3">
-        <v>-12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -631,28 +571,8 @@
       <c r="E4" s="4">
         <v>25</v>
       </c>
-      <c r="G4">
-        <f>IF(E4&gt;=70, 1, -1)</f>
-        <v>-1</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4" cm="1">
-        <f t="array" ref="J4:M4">(G4*A4:D4)/(1+EXP(G4*TRANSPOSE($I$2:$I$5)*A4:D4))</f>
-        <v>-0.5</v>
-      </c>
-      <c r="K4">
-        <v>-32</v>
-      </c>
-      <c r="L4">
-        <v>-13.5</v>
-      </c>
-      <c r="M4">
-        <v>-9.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -668,28 +588,8 @@
       <c r="E5" s="3">
         <v>25</v>
       </c>
-      <c r="G5">
-        <f>IF(E5&gt;=70, 1, -1)</f>
-        <v>-1</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" cm="1">
-        <f t="array" ref="J5:M5">(G5*A5:D5)/(1+EXP(G5*TRANSPOSE($I$2:$I$5)*A5:D5))</f>
-        <v>-0.5</v>
-      </c>
-      <c r="K5">
-        <v>-25</v>
-      </c>
-      <c r="L5">
-        <v>-15</v>
-      </c>
-      <c r="M5">
-        <v>-14.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -705,25 +605,8 @@
       <c r="E6" s="4">
         <v>30</v>
       </c>
-      <c r="G6">
-        <f>IF(E6&gt;=70, 1, -1)</f>
-        <v>-1</v>
-      </c>
-      <c r="J6" cm="1">
-        <f t="array" ref="J6:M6">(G6*A6:D6)/(1+EXP(G6*TRANSPOSE($I$2:$I$5)*A6:D6))</f>
-        <v>-0.5</v>
-      </c>
-      <c r="K6">
-        <v>-36.5</v>
-      </c>
-      <c r="L6">
-        <v>-19.5</v>
-      </c>
-      <c r="M6">
-        <v>-16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -739,25 +622,8 @@
       <c r="E7" s="3">
         <v>33</v>
       </c>
-      <c r="G7">
-        <f>IF(E7&gt;=70, 1, -1)</f>
-        <v>-1</v>
-      </c>
-      <c r="J7" cm="1">
-        <f t="array" ref="J7:M7">(G7*A7:D7)/(1+EXP(G7*TRANSPOSE($I$2:$I$5)*A7:D7))</f>
-        <v>-0.5</v>
-      </c>
-      <c r="K7">
-        <v>-32.5</v>
-      </c>
-      <c r="L7">
-        <v>-23</v>
-      </c>
-      <c r="M7">
-        <v>-29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -773,25 +639,8 @@
       <c r="E8" s="4">
         <v>35</v>
       </c>
-      <c r="G8">
-        <f>IF(E8&gt;=70, 1, -1)</f>
-        <v>-1</v>
-      </c>
-      <c r="J8" cm="1">
-        <f t="array" ref="J8:M8">(G8*A8:D8)/(1+EXP(G8*TRANSPOSE($I$2:$I$5)*A8:D8))</f>
-        <v>-0.5</v>
-      </c>
-      <c r="K8">
-        <v>-38</v>
-      </c>
-      <c r="L8">
-        <v>-42.5</v>
-      </c>
-      <c r="M8">
-        <v>-20.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -807,25 +656,8 @@
       <c r="E9" s="3">
         <v>38</v>
       </c>
-      <c r="G9">
-        <f>IF(E9&gt;=70, 1, -1)</f>
-        <v>-1</v>
-      </c>
-      <c r="J9" cm="1">
-        <f t="array" ref="J9:M9">(G9*A9:D9)/(1+EXP(G9*TRANSPOSE($I$2:$I$5)*A9:D9))</f>
-        <v>-0.5</v>
-      </c>
-      <c r="K9">
-        <v>-37.5</v>
-      </c>
-      <c r="L9">
-        <v>-26.5</v>
-      </c>
-      <c r="M9">
-        <v>-18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -841,25 +673,8 @@
       <c r="E10" s="3">
         <v>44</v>
       </c>
-      <c r="G10">
-        <f>IF(E10&gt;=70, 1, -1)</f>
-        <v>-1</v>
-      </c>
-      <c r="J10" cm="1">
-        <f t="array" ref="J10:M10">(G10*A10:D10)/(1+EXP(G10*TRANSPOSE($I$2:$I$5)*A10:D10))</f>
-        <v>-0.5</v>
-      </c>
-      <c r="K10">
-        <v>-46</v>
-      </c>
-      <c r="L10">
-        <v>-18.5</v>
-      </c>
-      <c r="M10">
-        <v>-37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -875,25 +690,8 @@
       <c r="E11" s="4">
         <v>48</v>
       </c>
-      <c r="G11">
-        <f>IF(E11&gt;=70, 1, -1)</f>
-        <v>-1</v>
-      </c>
-      <c r="J11" cm="1">
-        <f t="array" ref="J11:M11">(G11*A11:D11)/(1+EXP(G11*TRANSPOSE($I$2:$I$5)*A11:D11))</f>
-        <v>-0.5</v>
-      </c>
-      <c r="K11">
-        <v>-24</v>
-      </c>
-      <c r="L11">
-        <v>-48</v>
-      </c>
-      <c r="M11">
-        <v>-19.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -909,25 +707,8 @@
       <c r="E12" s="3">
         <v>52</v>
       </c>
-      <c r="G12">
-        <f>IF(E12&gt;=70, 1, -1)</f>
-        <v>-1</v>
-      </c>
-      <c r="J12" cm="1">
-        <f t="array" ref="J12:M12">(G12*A12:D12)/(1+EXP(G12*TRANSPOSE($I$2:$I$5)*A12:D12))</f>
-        <v>-0.5</v>
-      </c>
-      <c r="K12">
-        <v>-18.5</v>
-      </c>
-      <c r="L12">
-        <v>-11.5</v>
-      </c>
-      <c r="M12">
-        <v>-20.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -943,25 +724,8 @@
       <c r="E13" s="4">
         <v>53</v>
       </c>
-      <c r="G13">
-        <f>IF(E13&gt;=70, 1, -1)</f>
-        <v>-1</v>
-      </c>
-      <c r="J13" cm="1">
-        <f t="array" ref="J13:M13">(G13*A13:D13)/(1+EXP(G13*TRANSPOSE($I$2:$I$5)*A13:D13))</f>
-        <v>-0.5</v>
-      </c>
-      <c r="K13">
-        <v>-29.5</v>
-      </c>
-      <c r="L13">
-        <v>-33</v>
-      </c>
-      <c r="M13">
-        <v>-25.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -977,25 +741,8 @@
       <c r="E14" s="4">
         <v>53</v>
       </c>
-      <c r="G14">
-        <f>IF(E14&gt;=70, 1, -1)</f>
-        <v>-1</v>
-      </c>
-      <c r="J14" cm="1">
-        <f t="array" ref="J14:M14">(G14*A14:D14)/(1+EXP(G14*TRANSPOSE($I$2:$I$5)*A14:D14))</f>
-        <v>-0.5</v>
-      </c>
-      <c r="K14">
-        <v>-22</v>
-      </c>
-      <c r="L14">
-        <v>-46.5</v>
-      </c>
-      <c r="M14">
-        <v>-23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1011,25 +758,8 @@
       <c r="E15" s="4">
         <v>54</v>
       </c>
-      <c r="G15">
-        <f>IF(E15&gt;=70, 1, -1)</f>
-        <v>-1</v>
-      </c>
-      <c r="J15" cm="1">
-        <f t="array" ref="J15:M15">(G15*A15:D15)/(1+EXP(G15*TRANSPOSE($I$2:$I$5)*A15:D15))</f>
-        <v>-0.5</v>
-      </c>
-      <c r="K15">
-        <v>-28</v>
-      </c>
-      <c r="L15">
-        <v>-17.5</v>
-      </c>
-      <c r="M15">
-        <v>-30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1045,25 +775,8 @@
       <c r="E16" s="4">
         <v>59</v>
       </c>
-      <c r="G16">
-        <f>IF(E16&gt;=70, 1, -1)</f>
-        <v>-1</v>
-      </c>
-      <c r="J16" cm="1">
-        <f t="array" ref="J16:M16">(G16*A16:D16)/(1+EXP(G16*TRANSPOSE($I$2:$I$5)*A16:D16))</f>
-        <v>-0.5</v>
-      </c>
-      <c r="K16">
-        <v>-37</v>
-      </c>
-      <c r="L16">
-        <v>-26.5</v>
-      </c>
-      <c r="M16">
-        <v>-29.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1079,25 +792,8 @@
       <c r="E17" s="4">
         <v>60</v>
       </c>
-      <c r="G17">
-        <f>IF(E17&gt;=70, 1, -1)</f>
-        <v>-1</v>
-      </c>
-      <c r="J17" cm="1">
-        <f t="array" ref="J17:M17">(G17*A17:D17)/(1+EXP(G17*TRANSPOSE($I$2:$I$5)*A17:D17))</f>
-        <v>-0.5</v>
-      </c>
-      <c r="K17">
-        <v>-26</v>
-      </c>
-      <c r="L17">
-        <v>-45</v>
-      </c>
-      <c r="M17">
-        <v>-24.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1113,25 +809,8 @@
       <c r="E18" s="3">
         <v>60</v>
       </c>
-      <c r="G18">
-        <f>IF(E18&gt;=70, 1, -1)</f>
-        <v>-1</v>
-      </c>
-      <c r="J18" cm="1">
-        <f t="array" ref="J18:M18">(G18*A18:D18)/(1+EXP(G18*TRANSPOSE($I$2:$I$5)*A18:D18))</f>
-        <v>-0.5</v>
-      </c>
-      <c r="K18">
-        <v>-30</v>
-      </c>
-      <c r="L18">
-        <v>-13.5</v>
-      </c>
-      <c r="M18">
-        <v>-30.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1147,25 +826,8 @@
       <c r="E19" s="3">
         <v>60</v>
       </c>
-      <c r="G19">
-        <f>IF(E19&gt;=70, 1, -1)</f>
-        <v>-1</v>
-      </c>
-      <c r="J19" cm="1">
-        <f t="array" ref="J19:M19">(G19*A19:D19)/(1+EXP(G19*TRANSPOSE($I$2:$I$5)*A19:D19))</f>
-        <v>-0.5</v>
-      </c>
-      <c r="K19">
-        <v>-29</v>
-      </c>
-      <c r="L19">
-        <v>-14</v>
-      </c>
-      <c r="M19">
-        <v>-23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1181,25 +843,8 @@
       <c r="E20" s="4">
         <v>61</v>
       </c>
-      <c r="G20">
-        <f>IF(E20&gt;=70, 1, -1)</f>
-        <v>-1</v>
-      </c>
-      <c r="J20" cm="1">
-        <f t="array" ref="J20:M20">(G20*A20:D20)/(1+EXP(G20*TRANSPOSE($I$2:$I$5)*A20:D20))</f>
-        <v>-0.5</v>
-      </c>
-      <c r="K20">
-        <v>-39.5</v>
-      </c>
-      <c r="L20">
-        <v>-32</v>
-      </c>
-      <c r="M20">
-        <v>-30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1215,25 +860,8 @@
       <c r="E21" s="4">
         <v>61</v>
       </c>
-      <c r="G21">
-        <f>IF(E21&gt;=70, 1, -1)</f>
-        <v>-1</v>
-      </c>
-      <c r="J21" cm="1">
-        <f t="array" ref="J21:M21">(G21*A21:D21)/(1+EXP(G21*TRANSPOSE($I$2:$I$5)*A21:D21))</f>
-        <v>-0.5</v>
-      </c>
-      <c r="K21">
-        <v>-37</v>
-      </c>
-      <c r="L21">
-        <v>-23.5</v>
-      </c>
-      <c r="M21">
-        <v>-25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1249,25 +877,8 @@
       <c r="E22" s="4">
         <v>62</v>
       </c>
-      <c r="G22">
-        <f>IF(E22&gt;=70, 1, -1)</f>
-        <v>-1</v>
-      </c>
-      <c r="J22" cm="1">
-        <f t="array" ref="J22:M22">(G22*A22:D22)/(1+EXP(G22*TRANSPOSE($I$2:$I$5)*A22:D22))</f>
-        <v>-0.5</v>
-      </c>
-      <c r="K22">
-        <v>-43</v>
-      </c>
-      <c r="L22">
-        <v>-42.5</v>
-      </c>
-      <c r="M22">
-        <v>-34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1283,25 +894,8 @@
       <c r="E23" s="3">
         <v>62</v>
       </c>
-      <c r="G23">
-        <f>IF(E23&gt;=70, 1, -1)</f>
-        <v>-1</v>
-      </c>
-      <c r="J23" cm="1">
-        <f t="array" ref="J23:M23">(G23*A23:D23)/(1+EXP(G23*TRANSPOSE($I$2:$I$5)*A23:D23))</f>
-        <v>-0.5</v>
-      </c>
-      <c r="K23">
-        <v>-36</v>
-      </c>
-      <c r="L23">
-        <v>-23</v>
-      </c>
-      <c r="M23">
-        <v>-31.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1317,25 +911,8 @@
       <c r="E24" s="3">
         <v>63</v>
       </c>
-      <c r="G24">
-        <f>IF(E24&gt;=70, 1, -1)</f>
-        <v>-1</v>
-      </c>
-      <c r="J24" cm="1">
-        <f t="array" ref="J24:M24">(G24*A24:D24)/(1+EXP(G24*TRANSPOSE($I$2:$I$5)*A24:D24))</f>
-        <v>-0.5</v>
-      </c>
-      <c r="K24">
-        <v>-34.5</v>
-      </c>
-      <c r="L24">
-        <v>-50</v>
-      </c>
-      <c r="M24">
-        <v>-24.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1351,25 +928,8 @@
       <c r="E25" s="3">
         <v>63</v>
       </c>
-      <c r="G25">
-        <f>IF(E25&gt;=70, 1, -1)</f>
-        <v>-1</v>
-      </c>
-      <c r="J25" cm="1">
-        <f t="array" ref="J25:M25">(G25*A25:D25)/(1+EXP(G25*TRANSPOSE($I$2:$I$5)*A25:D25))</f>
-        <v>-0.5</v>
-      </c>
-      <c r="K25">
-        <v>-39.5</v>
-      </c>
-      <c r="L25">
-        <v>-13</v>
-      </c>
-      <c r="M25">
-        <v>-29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1385,25 +945,8 @@
       <c r="E26" s="4">
         <v>63</v>
       </c>
-      <c r="G26">
-        <f>IF(E26&gt;=70, 1, -1)</f>
-        <v>-1</v>
-      </c>
-      <c r="J26" cm="1">
-        <f t="array" ref="J26:M26">(G26*A26:D26)/(1+EXP(G26*TRANSPOSE($I$2:$I$5)*A26:D26))</f>
-        <v>-0.5</v>
-      </c>
-      <c r="K26">
-        <v>-30.5</v>
-      </c>
-      <c r="L26">
-        <v>-28</v>
-      </c>
-      <c r="M26">
-        <v>-18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -1419,25 +962,8 @@
       <c r="E27" s="4">
         <v>64</v>
       </c>
-      <c r="G27">
-        <f>IF(E27&gt;=70, 1, -1)</f>
-        <v>-1</v>
-      </c>
-      <c r="J27" cm="1">
-        <f t="array" ref="J27:M27">(G27*A27:D27)/(1+EXP(G27*TRANSPOSE($I$2:$I$5)*A27:D27))</f>
-        <v>-0.5</v>
-      </c>
-      <c r="K27">
-        <v>-36.5</v>
-      </c>
-      <c r="L27">
-        <v>-18</v>
-      </c>
-      <c r="M27">
-        <v>-35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1453,25 +979,8 @@
       <c r="E28" s="3">
         <v>64</v>
       </c>
-      <c r="G28">
-        <f>IF(E28&gt;=70, 1, -1)</f>
-        <v>-1</v>
-      </c>
-      <c r="J28" cm="1">
-        <f t="array" ref="J28:M28">(G28*A28:D28)/(1+EXP(G28*TRANSPOSE($I$2:$I$5)*A28:D28))</f>
-        <v>-0.5</v>
-      </c>
-      <c r="K28">
-        <v>-25.5</v>
-      </c>
-      <c r="L28">
-        <v>-26</v>
-      </c>
-      <c r="M28">
-        <v>-25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1487,25 +996,8 @@
       <c r="E29" s="3">
         <v>64</v>
       </c>
-      <c r="G29">
-        <f>IF(E29&gt;=70, 1, -1)</f>
-        <v>-1</v>
-      </c>
-      <c r="J29" cm="1">
-        <f t="array" ref="J29:M29">(G29*A29:D29)/(1+EXP(G29*TRANSPOSE($I$2:$I$5)*A29:D29))</f>
-        <v>-0.5</v>
-      </c>
-      <c r="K29">
-        <v>-31</v>
-      </c>
-      <c r="L29">
-        <v>-37</v>
-      </c>
-      <c r="M29">
-        <v>-29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1521,25 +1013,8 @@
       <c r="E30" s="3">
         <v>65</v>
       </c>
-      <c r="G30">
-        <f>IF(E30&gt;=70, 1, -1)</f>
-        <v>-1</v>
-      </c>
-      <c r="J30" cm="1">
-        <f t="array" ref="J30:M30">(G30*A30:D30)/(1+EXP(G30*TRANSPOSE($I$2:$I$5)*A30:D30))</f>
-        <v>-0.5</v>
-      </c>
-      <c r="K30">
-        <v>-29</v>
-      </c>
-      <c r="L30">
-        <v>-36.5</v>
-      </c>
-      <c r="M30">
-        <v>-30.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -1555,25 +1030,8 @@
       <c r="E31" s="4">
         <v>65</v>
       </c>
-      <c r="G31">
-        <f>IF(E31&gt;=70, 1, -1)</f>
-        <v>-1</v>
-      </c>
-      <c r="J31" cm="1">
-        <f t="array" ref="J31:M31">(G31*A31:D31)/(1+EXP(G31*TRANSPOSE($I$2:$I$5)*A31:D31))</f>
-        <v>-0.5</v>
-      </c>
-      <c r="K31">
-        <v>-33.5</v>
-      </c>
-      <c r="L31">
-        <v>-32</v>
-      </c>
-      <c r="M31">
-        <v>-31.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -1589,25 +1047,8 @@
       <c r="E32" s="4">
         <v>65</v>
       </c>
-      <c r="G32">
-        <f>IF(E32&gt;=70, 1, -1)</f>
-        <v>-1</v>
-      </c>
-      <c r="J32" cm="1">
-        <f t="array" ref="J32:M32">(G32*A32:D32)/(1+EXP(G32*TRANSPOSE($I$2:$I$5)*A32:D32))</f>
-        <v>-0.5</v>
-      </c>
-      <c r="K32">
-        <v>-36</v>
-      </c>
-      <c r="L32">
-        <v>-35.5</v>
-      </c>
-      <c r="M32">
-        <v>-36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -1623,25 +1064,8 @@
       <c r="E33" s="4">
         <v>65</v>
       </c>
-      <c r="G33">
-        <f>IF(E33&gt;=70, 1, -1)</f>
-        <v>-1</v>
-      </c>
-      <c r="J33" cm="1">
-        <f t="array" ref="J33:M33">(G33*A33:D33)/(1+EXP(G33*TRANSPOSE($I$2:$I$5)*A33:D33))</f>
-        <v>-0.5</v>
-      </c>
-      <c r="K33">
-        <v>-30.5</v>
-      </c>
-      <c r="L33">
-        <v>-34.5</v>
-      </c>
-      <c r="M33">
-        <v>-29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -1657,25 +1081,8 @@
       <c r="E34" s="4">
         <v>66</v>
       </c>
-      <c r="G34">
-        <f>IF(E34&gt;=70, 1, -1)</f>
-        <v>-1</v>
-      </c>
-      <c r="J34" cm="1">
-        <f t="array" ref="J34:M34">(G34*A34:D34)/(1+EXP(G34*TRANSPOSE($I$2:$I$5)*A34:D34))</f>
-        <v>-0.5</v>
-      </c>
-      <c r="K34">
-        <v>-31</v>
-      </c>
-      <c r="L34">
-        <v>-45.5</v>
-      </c>
-      <c r="M34">
-        <v>-31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -1691,25 +1098,8 @@
       <c r="E35" s="4">
         <v>66</v>
       </c>
-      <c r="G35">
-        <f>IF(E35&gt;=70, 1, -1)</f>
-        <v>-1</v>
-      </c>
-      <c r="J35" cm="1">
-        <f t="array" ref="J35:M35">(G35*A35:D35)/(1+EXP(G35*TRANSPOSE($I$2:$I$5)*A35:D35))</f>
-        <v>-0.5</v>
-      </c>
-      <c r="K35">
-        <v>-40.5</v>
-      </c>
-      <c r="L35">
-        <v>-13.5</v>
-      </c>
-      <c r="M35">
-        <v>-35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -1725,25 +1115,8 @@
       <c r="E36" s="3">
         <v>66</v>
       </c>
-      <c r="G36">
-        <f>IF(E36&gt;=70, 1, -1)</f>
-        <v>-1</v>
-      </c>
-      <c r="J36" cm="1">
-        <f t="array" ref="J36:M36">(G36*A36:D36)/(1+EXP(G36*TRANSPOSE($I$2:$I$5)*A36:D36))</f>
-        <v>-0.5</v>
-      </c>
-      <c r="K36">
-        <v>-36.5</v>
-      </c>
-      <c r="L36">
-        <v>-15</v>
-      </c>
-      <c r="M36">
-        <v>-31.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -1759,25 +1132,8 @@
       <c r="E37" s="4">
         <v>67</v>
       </c>
-      <c r="G37">
-        <f>IF(E37&gt;=70, 1, -1)</f>
-        <v>-1</v>
-      </c>
-      <c r="J37" cm="1">
-        <f t="array" ref="J37:M37">(G37*A37:D37)/(1+EXP(G37*TRANSPOSE($I$2:$I$5)*A37:D37))</f>
-        <v>-0.5</v>
-      </c>
-      <c r="K37">
-        <v>-34.5</v>
-      </c>
-      <c r="L37">
-        <v>-24</v>
-      </c>
-      <c r="M37">
-        <v>-35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1793,25 +1149,8 @@
       <c r="E38" s="3">
         <v>67</v>
       </c>
-      <c r="G38">
-        <f>IF(E38&gt;=70, 1, -1)</f>
-        <v>-1</v>
-      </c>
-      <c r="J38" cm="1">
-        <f t="array" ref="J38:M38">(G38*A38:D38)/(1+EXP(G38*TRANSPOSE($I$2:$I$5)*A38:D38))</f>
-        <v>-0.5</v>
-      </c>
-      <c r="K38">
-        <v>-34.5</v>
-      </c>
-      <c r="L38">
-        <v>-21.5</v>
-      </c>
-      <c r="M38">
-        <v>-29</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -1827,25 +1166,8 @@
       <c r="E39" s="3">
         <v>67</v>
       </c>
-      <c r="G39">
-        <f>IF(E39&gt;=70, 1, -1)</f>
-        <v>-1</v>
-      </c>
-      <c r="J39" cm="1">
-        <f t="array" ref="J39:M39">(G39*A39:D39)/(1+EXP(G39*TRANSPOSE($I$2:$I$5)*A39:D39))</f>
-        <v>-0.5</v>
-      </c>
-      <c r="K39">
-        <v>-28.5</v>
-      </c>
-      <c r="L39">
-        <v>-48.5</v>
-      </c>
-      <c r="M39">
-        <v>-26.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -1861,25 +1183,8 @@
       <c r="E40" s="3">
         <v>68</v>
       </c>
-      <c r="G40">
-        <f>IF(E40&gt;=70, 1, -1)</f>
-        <v>-1</v>
-      </c>
-      <c r="J40" cm="1">
-        <f t="array" ref="J40:M40">(G40*A40:D40)/(1+EXP(G40*TRANSPOSE($I$2:$I$5)*A40:D40))</f>
-        <v>-0.5</v>
-      </c>
-      <c r="K40">
-        <v>-28.5</v>
-      </c>
-      <c r="L40">
-        <v>-38</v>
-      </c>
-      <c r="M40">
-        <v>-29.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -1895,25 +1200,8 @@
       <c r="E41" s="3">
         <v>68</v>
       </c>
-      <c r="G41">
-        <f>IF(E41&gt;=70, 1, -1)</f>
-        <v>-1</v>
-      </c>
-      <c r="J41" cm="1">
-        <f t="array" ref="J41:M41">(G41*A41:D41)/(1+EXP(G41*TRANSPOSE($I$2:$I$5)*A41:D41))</f>
-        <v>-0.5</v>
-      </c>
-      <c r="K41">
-        <v>-41</v>
-      </c>
-      <c r="L41">
-        <v>-4.5</v>
-      </c>
-      <c r="M41">
-        <v>-22</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -1929,25 +1217,8 @@
       <c r="E42" s="4">
         <v>68</v>
       </c>
-      <c r="G42">
-        <f>IF(E42&gt;=70, 1, -1)</f>
-        <v>-1</v>
-      </c>
-      <c r="J42" cm="1">
-        <f t="array" ref="J42:M42">(G42*A42:D42)/(1+EXP(G42*TRANSPOSE($I$2:$I$5)*A42:D42))</f>
-        <v>-0.5</v>
-      </c>
-      <c r="K42">
-        <v>-30</v>
-      </c>
-      <c r="L42">
-        <v>-33</v>
-      </c>
-      <c r="M42">
-        <v>-45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -1963,25 +1234,8 @@
       <c r="E43" s="4">
         <v>68</v>
       </c>
-      <c r="G43">
-        <f>IF(E43&gt;=70, 1, -1)</f>
-        <v>-1</v>
-      </c>
-      <c r="J43" cm="1">
-        <f t="array" ref="J43:M43">(G43*A43:D43)/(1+EXP(G43*TRANSPOSE($I$2:$I$5)*A43:D43))</f>
-        <v>-0.5</v>
-      </c>
-      <c r="K43">
-        <v>-39</v>
-      </c>
-      <c r="L43">
-        <v>-32</v>
-      </c>
-      <c r="M43">
-        <v>-40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -1997,25 +1251,8 @@
       <c r="E44" s="4">
         <v>68</v>
       </c>
-      <c r="G44">
-        <f>IF(E44&gt;=70, 1, -1)</f>
-        <v>-1</v>
-      </c>
-      <c r="J44" cm="1">
-        <f t="array" ref="J44:M44">(G44*A44:D44)/(1+EXP(G44*TRANSPOSE($I$2:$I$5)*A44:D44))</f>
-        <v>-0.5</v>
-      </c>
-      <c r="K44">
-        <v>-44.5</v>
-      </c>
-      <c r="L44">
-        <v>-18.5</v>
-      </c>
-      <c r="M44">
-        <v>-22</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -2031,25 +1268,8 @@
       <c r="E45" s="3">
         <v>69</v>
       </c>
-      <c r="G45">
-        <f>IF(E45&gt;=70, 1, -1)</f>
-        <v>-1</v>
-      </c>
-      <c r="J45" cm="1">
-        <f t="array" ref="J45:M45">(G45*A45:D45)/(1+EXP(G45*TRANSPOSE($I$2:$I$5)*A45:D45))</f>
-        <v>-0.5</v>
-      </c>
-      <c r="K45">
-        <v>-41.5</v>
-      </c>
-      <c r="L45">
-        <v>-11.5</v>
-      </c>
-      <c r="M45">
-        <v>-39.5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -2065,25 +1285,8 @@
       <c r="E46" s="3">
         <v>69</v>
       </c>
-      <c r="G46">
-        <f>IF(E46&gt;=70, 1, -1)</f>
-        <v>-1</v>
-      </c>
-      <c r="J46" cm="1">
-        <f t="array" ref="J46:M46">(G46*A46:D46)/(1+EXP(G46*TRANSPOSE($I$2:$I$5)*A46:D46))</f>
-        <v>-0.5</v>
-      </c>
-      <c r="K46">
-        <v>-33</v>
-      </c>
-      <c r="L46">
-        <v>-40.5</v>
-      </c>
-      <c r="M46">
-        <v>-22.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -2099,25 +1302,8 @@
       <c r="E47" s="3">
         <v>69</v>
       </c>
-      <c r="G47">
-        <f>IF(E47&gt;=70, 1, -1)</f>
-        <v>-1</v>
-      </c>
-      <c r="J47" cm="1">
-        <f t="array" ref="J47:M47">(G47*A47:D47)/(1+EXP(G47*TRANSPOSE($I$2:$I$5)*A47:D47))</f>
-        <v>-0.5</v>
-      </c>
-      <c r="K47">
-        <v>-31.5</v>
-      </c>
-      <c r="L47">
-        <v>-41</v>
-      </c>
-      <c r="M47">
-        <v>-35</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -2133,25 +1319,8 @@
       <c r="E48" s="4">
         <v>69</v>
       </c>
-      <c r="G48">
-        <f>IF(E48&gt;=70, 1, -1)</f>
-        <v>-1</v>
-      </c>
-      <c r="J48" cm="1">
-        <f t="array" ref="J48:M48">(G48*A48:D48)/(1+EXP(G48*TRANSPOSE($I$2:$I$5)*A48:D48))</f>
-        <v>-0.5</v>
-      </c>
-      <c r="K48">
-        <v>-41</v>
-      </c>
-      <c r="L48">
-        <v>-28.5</v>
-      </c>
-      <c r="M48">
-        <v>-49.5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
@@ -2167,25 +1336,8 @@
       <c r="E49" s="4">
         <v>69</v>
       </c>
-      <c r="G49">
-        <f>IF(E49&gt;=70, 1, -1)</f>
-        <v>-1</v>
-      </c>
-      <c r="J49" cm="1">
-        <f t="array" ref="J49:M49">(G49*A49:D49)/(1+EXP(G49*TRANSPOSE($I$2:$I$5)*A49:D49))</f>
-        <v>-0.5</v>
-      </c>
-      <c r="K49">
-        <v>-37</v>
-      </c>
-      <c r="L49">
-        <v>-22.5</v>
-      </c>
-      <c r="M49">
-        <v>-30.5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -2201,25 +1353,8 @@
       <c r="E50" s="3">
         <v>69</v>
       </c>
-      <c r="G50">
-        <f>IF(E50&gt;=70, 1, -1)</f>
-        <v>-1</v>
-      </c>
-      <c r="J50" cm="1">
-        <f t="array" ref="J50:M50">(G50*A50:D50)/(1+EXP(G50*TRANSPOSE($I$2:$I$5)*A50:D50))</f>
-        <v>-0.5</v>
-      </c>
-      <c r="K50">
-        <v>-31.5</v>
-      </c>
-      <c r="L50">
-        <v>-43</v>
-      </c>
-      <c r="M50">
-        <v>-35</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
@@ -2235,25 +1370,8 @@
       <c r="E51" s="3">
         <v>69</v>
       </c>
-      <c r="G51">
-        <f>IF(E51&gt;=70, 1, -1)</f>
-        <v>-1</v>
-      </c>
-      <c r="J51" cm="1">
-        <f t="array" ref="J51:M51">(G51*A51:D51)/(1+EXP(G51*TRANSPOSE($I$2:$I$5)*A51:D51))</f>
-        <v>-0.5</v>
-      </c>
-      <c r="K51">
-        <v>-43</v>
-      </c>
-      <c r="L51">
-        <v>-16.5</v>
-      </c>
-      <c r="M51">
-        <v>-35</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1</v>
       </c>
@@ -2269,25 +1387,8 @@
       <c r="E52" s="3">
         <v>69</v>
       </c>
-      <c r="G52">
-        <f>IF(E52&gt;=70, 1, -1)</f>
-        <v>-1</v>
-      </c>
-      <c r="J52" cm="1">
-        <f t="array" ref="J52:M52">(G52*A52:D52)/(1+EXP(G52*TRANSPOSE($I$2:$I$5)*A52:D52))</f>
-        <v>-0.5</v>
-      </c>
-      <c r="K52">
-        <v>-34</v>
-      </c>
-      <c r="L52">
-        <v>-32.5</v>
-      </c>
-      <c r="M52">
-        <v>-34</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -2303,25 +1404,8 @@
       <c r="E53" s="3">
         <v>70</v>
       </c>
-      <c r="G53">
-        <f>IF(E53&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J53" cm="1">
-        <f t="array" ref="J53:M53">(G53*A53:D53)/(1+EXP(G53*TRANSPOSE($I$2:$I$5)*A53:D53))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K53">
-        <v>34.5</v>
-      </c>
-      <c r="L53">
-        <v>32</v>
-      </c>
-      <c r="M53">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1</v>
       </c>
@@ -2337,25 +1421,8 @@
       <c r="E54" s="3">
         <v>70</v>
       </c>
-      <c r="G54">
-        <f>IF(E54&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J54" cm="1">
-        <f t="array" ref="J54:M54">(G54*A54:D54)/(1+EXP(G54*TRANSPOSE($I$2:$I$5)*A54:D54))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K54">
-        <v>41.5</v>
-      </c>
-      <c r="L54">
-        <v>28.5</v>
-      </c>
-      <c r="M54">
-        <v>39.5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
@@ -2371,25 +1438,8 @@
       <c r="E55" s="4">
         <v>70</v>
       </c>
-      <c r="G55">
-        <f>IF(E55&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J55" cm="1">
-        <f t="array" ref="J55:M55">(G55*A55:D55)/(1+EXP(G55*TRANSPOSE($I$2:$I$5)*A55:D55))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K55">
-        <v>38</v>
-      </c>
-      <c r="L55">
-        <v>30</v>
-      </c>
-      <c r="M55">
-        <v>34.5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1</v>
       </c>
@@ -2405,25 +1455,8 @@
       <c r="E56" s="3">
         <v>70</v>
       </c>
-      <c r="G56">
-        <f>IF(E56&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J56" cm="1">
-        <f t="array" ref="J56:M56">(G56*A56:D56)/(1+EXP(G56*TRANSPOSE($I$2:$I$5)*A56:D56))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K56">
-        <v>33.5</v>
-      </c>
-      <c r="L56">
-        <v>41.5</v>
-      </c>
-      <c r="M56">
-        <v>40.5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1</v>
       </c>
@@ -2439,25 +1472,8 @@
       <c r="E57" s="4">
         <v>71</v>
       </c>
-      <c r="G57">
-        <f>IF(E57&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J57" cm="1">
-        <f t="array" ref="J57:M57">(G57*A57:D57)/(1+EXP(G57*TRANSPOSE($I$2:$I$5)*A57:D57))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K57">
-        <v>31.5</v>
-      </c>
-      <c r="L57">
-        <v>46</v>
-      </c>
-      <c r="M57">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
@@ -2473,25 +1489,8 @@
       <c r="E58" s="3">
         <v>71</v>
       </c>
-      <c r="G58">
-        <f>IF(E58&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J58" cm="1">
-        <f t="array" ref="J58:M58">(G58*A58:D58)/(1+EXP(G58*TRANSPOSE($I$2:$I$5)*A58:D58))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K58">
-        <v>36</v>
-      </c>
-      <c r="L58">
-        <v>41</v>
-      </c>
-      <c r="M58">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
@@ -2507,25 +1506,8 @@
       <c r="E59" s="4">
         <v>71</v>
       </c>
-      <c r="G59">
-        <f>IF(E59&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J59" cm="1">
-        <f t="array" ref="J59:M59">(G59*A59:D59)/(1+EXP(G59*TRANSPOSE($I$2:$I$5)*A59:D59))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K59">
-        <v>36.5</v>
-      </c>
-      <c r="L59">
-        <v>44</v>
-      </c>
-      <c r="M59">
-        <v>36.5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1</v>
       </c>
@@ -2541,25 +1523,8 @@
       <c r="E60" s="3">
         <v>71</v>
       </c>
-      <c r="G60">
-        <f>IF(E60&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J60" cm="1">
-        <f t="array" ref="J60:M60">(G60*A60:D60)/(1+EXP(G60*TRANSPOSE($I$2:$I$5)*A60:D60))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K60">
-        <v>39.5</v>
-      </c>
-      <c r="L60">
-        <v>7.5</v>
-      </c>
-      <c r="M60">
-        <v>31.5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1</v>
       </c>
@@ -2575,25 +1540,8 @@
       <c r="E61" s="3">
         <v>71</v>
       </c>
-      <c r="G61">
-        <f>IF(E61&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J61" cm="1">
-        <f t="array" ref="J61:M61">(G61*A61:D61)/(1+EXP(G61*TRANSPOSE($I$2:$I$5)*A61:D61))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K61">
-        <v>37</v>
-      </c>
-      <c r="L61">
-        <v>39.5</v>
-      </c>
-      <c r="M61">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1</v>
       </c>
@@ -2609,25 +1557,8 @@
       <c r="E62" s="3">
         <v>71</v>
       </c>
-      <c r="G62">
-        <f>IF(E62&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J62" cm="1">
-        <f t="array" ref="J62:M62">(G62*A62:D62)/(1+EXP(G62*TRANSPOSE($I$2:$I$5)*A62:D62))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K62">
-        <v>35.5</v>
-      </c>
-      <c r="L62">
-        <v>40</v>
-      </c>
-      <c r="M62">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1</v>
       </c>
@@ -2643,25 +1574,8 @@
       <c r="E63" s="3">
         <v>72</v>
       </c>
-      <c r="G63">
-        <f>IF(E63&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J63" cm="1">
-        <f t="array" ref="J63:M63">(G63*A63:D63)/(1+EXP(G63*TRANSPOSE($I$2:$I$5)*A63:D63))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K63">
-        <v>32</v>
-      </c>
-      <c r="L63">
-        <v>49.5</v>
-      </c>
-      <c r="M63">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1</v>
       </c>
@@ -2677,25 +1591,8 @@
       <c r="E64" s="4">
         <v>72</v>
       </c>
-      <c r="G64">
-        <f>IF(E64&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J64" cm="1">
-        <f t="array" ref="J64:M64">(G64*A64:D64)/(1+EXP(G64*TRANSPOSE($I$2:$I$5)*A64:D64))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K64">
-        <v>32</v>
-      </c>
-      <c r="L64">
-        <v>46</v>
-      </c>
-      <c r="M64">
-        <v>36.5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1</v>
       </c>
@@ -2711,25 +1608,8 @@
       <c r="E65" s="3">
         <v>72</v>
       </c>
-      <c r="G65">
-        <f>IF(E65&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J65" cm="1">
-        <f t="array" ref="J65:M65">(G65*A65:D65)/(1+EXP(G65*TRANSPOSE($I$2:$I$5)*A65:D65))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K65">
-        <v>30</v>
-      </c>
-      <c r="L65">
-        <v>28.5</v>
-      </c>
-      <c r="M65">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1</v>
       </c>
@@ -2745,25 +1625,8 @@
       <c r="E66" s="3">
         <v>72</v>
       </c>
-      <c r="G66">
-        <f>IF(E66&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J66" cm="1">
-        <f t="array" ref="J66:M66">(G66*A66:D66)/(1+EXP(G66*TRANSPOSE($I$2:$I$5)*A66:D66))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K66">
-        <v>30.5</v>
-      </c>
-      <c r="L66">
-        <v>39</v>
-      </c>
-      <c r="M66">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1</v>
       </c>
@@ -2779,25 +1642,8 @@
       <c r="E67" s="3">
         <v>72</v>
       </c>
-      <c r="G67">
-        <f>IF(E67&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J67" cm="1">
-        <f t="array" ref="J67:M67">(G67*A67:D67)/(1+EXP(G67*TRANSPOSE($I$2:$I$5)*A67:D67))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K67">
-        <v>37.5</v>
-      </c>
-      <c r="L67">
-        <v>41</v>
-      </c>
-      <c r="M67">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1</v>
       </c>
@@ -2813,25 +1659,8 @@
       <c r="E68" s="3">
         <v>72</v>
       </c>
-      <c r="G68">
-        <f>IF(E68&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J68" cm="1">
-        <f t="array" ref="J68:M68">(G68*A68:D68)/(1+EXP(G68*TRANSPOSE($I$2:$I$5)*A68:D68))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K68">
-        <v>33</v>
-      </c>
-      <c r="L68">
-        <v>21.5</v>
-      </c>
-      <c r="M68">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1</v>
       </c>
@@ -2847,25 +1676,8 @@
       <c r="E69" s="4">
         <v>72</v>
       </c>
-      <c r="G69">
-        <f>IF(E69&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J69" cm="1">
-        <f t="array" ref="J69:M69">(G69*A69:D69)/(1+EXP(G69*TRANSPOSE($I$2:$I$5)*A69:D69))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K69">
-        <v>36.5</v>
-      </c>
-      <c r="L69">
-        <v>43.5</v>
-      </c>
-      <c r="M69">
-        <v>35.5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1</v>
       </c>
@@ -2881,25 +1693,8 @@
       <c r="E70" s="3">
         <v>72</v>
       </c>
-      <c r="G70">
-        <f>IF(E70&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J70" cm="1">
-        <f t="array" ref="J70:M70">(G70*A70:D70)/(1+EXP(G70*TRANSPOSE($I$2:$I$5)*A70:D70))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K70">
-        <v>38</v>
-      </c>
-      <c r="L70">
-        <v>32</v>
-      </c>
-      <c r="M70">
-        <v>35.5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1</v>
       </c>
@@ -2915,25 +1710,8 @@
       <c r="E71" s="4">
         <v>72</v>
       </c>
-      <c r="G71">
-        <f>IF(E71&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J71" cm="1">
-        <f t="array" ref="J71:M71">(G71*A71:D71)/(1+EXP(G71*TRANSPOSE($I$2:$I$5)*A71:D71))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K71">
-        <v>33.5</v>
-      </c>
-      <c r="L71">
-        <v>48</v>
-      </c>
-      <c r="M71">
-        <v>35.5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1</v>
       </c>
@@ -2949,25 +1727,8 @@
       <c r="E72" s="4">
         <v>72</v>
       </c>
-      <c r="G72">
-        <f>IF(E72&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J72" cm="1">
-        <f t="array" ref="J72:M72">(G72*A72:D72)/(1+EXP(G72*TRANSPOSE($I$2:$I$5)*A72:D72))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K72">
-        <v>39</v>
-      </c>
-      <c r="L72">
-        <v>20</v>
-      </c>
-      <c r="M72">
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1</v>
       </c>
@@ -2983,25 +1744,8 @@
       <c r="E73" s="4">
         <v>73</v>
       </c>
-      <c r="G73">
-        <f>IF(E73&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J73" cm="1">
-        <f t="array" ref="J73:M73">(G73*A73:D73)/(1+EXP(G73*TRANSPOSE($I$2:$I$5)*A73:D73))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K73">
-        <v>34</v>
-      </c>
-      <c r="L73">
-        <v>48.5</v>
-      </c>
-      <c r="M73">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1</v>
       </c>
@@ -3017,25 +1761,8 @@
       <c r="E74" s="4">
         <v>73</v>
       </c>
-      <c r="G74">
-        <f>IF(E74&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J74" cm="1">
-        <f t="array" ref="J74:M74">(G74*A74:D74)/(1+EXP(G74*TRANSPOSE($I$2:$I$5)*A74:D74))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K74">
-        <v>34.5</v>
-      </c>
-      <c r="L74">
-        <v>36.5</v>
-      </c>
-      <c r="M74">
-        <v>36.5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1</v>
       </c>
@@ -3051,25 +1778,8 @@
       <c r="E75" s="3">
         <v>73</v>
       </c>
-      <c r="G75">
-        <f>IF(E75&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J75" cm="1">
-        <f t="array" ref="J75:M75">(G75*A75:D75)/(1+EXP(G75*TRANSPOSE($I$2:$I$5)*A75:D75))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K75">
-        <v>43.5</v>
-      </c>
-      <c r="L75">
-        <v>11.5</v>
-      </c>
-      <c r="M75">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1</v>
       </c>
@@ -3085,25 +1795,8 @@
       <c r="E76" s="3">
         <v>73</v>
       </c>
-      <c r="G76">
-        <f>IF(E76&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J76" cm="1">
-        <f t="array" ref="J76:M76">(G76*A76:D76)/(1+EXP(G76*TRANSPOSE($I$2:$I$5)*A76:D76))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K76">
-        <v>36.5</v>
-      </c>
-      <c r="L76">
-        <v>34.5</v>
-      </c>
-      <c r="M76">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1</v>
       </c>
@@ -3119,25 +1812,8 @@
       <c r="E77" s="3">
         <v>73</v>
       </c>
-      <c r="G77">
-        <f>IF(E77&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J77" cm="1">
-        <f t="array" ref="J77:M77">(G77*A77:D77)/(1+EXP(G77*TRANSPOSE($I$2:$I$5)*A77:D77))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K77">
-        <v>29.5</v>
-      </c>
-      <c r="L77">
-        <v>44</v>
-      </c>
-      <c r="M77">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1</v>
       </c>
@@ -3153,25 +1829,8 @@
       <c r="E78" s="4">
         <v>73</v>
       </c>
-      <c r="G78">
-        <f>IF(E78&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J78" cm="1">
-        <f t="array" ref="J78:M78">(G78*A78:D78)/(1+EXP(G78*TRANSPOSE($I$2:$I$5)*A78:D78))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K78">
-        <v>33.5</v>
-      </c>
-      <c r="L78">
-        <v>42</v>
-      </c>
-      <c r="M78">
-        <v>35.5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1</v>
       </c>
@@ -3187,25 +1846,8 @@
       <c r="E79" s="3">
         <v>73</v>
       </c>
-      <c r="G79">
-        <f>IF(E79&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J79" cm="1">
-        <f t="array" ref="J79:M79">(G79*A79:D79)/(1+EXP(G79*TRANSPOSE($I$2:$I$5)*A79:D79))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K79">
-        <v>36.5</v>
-      </c>
-      <c r="L79">
-        <v>35</v>
-      </c>
-      <c r="M79">
-        <v>34.5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1</v>
       </c>
@@ -3221,25 +1863,8 @@
       <c r="E80" s="4">
         <v>73</v>
       </c>
-      <c r="G80">
-        <f>IF(E80&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J80" cm="1">
-        <f t="array" ref="J80:M80">(G80*A80:D80)/(1+EXP(G80*TRANSPOSE($I$2:$I$5)*A80:D80))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K80">
-        <v>31.5</v>
-      </c>
-      <c r="L80">
-        <v>45</v>
-      </c>
-      <c r="M80">
-        <v>26.5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1</v>
       </c>
@@ -3255,25 +1880,8 @@
       <c r="E81" s="4">
         <v>73</v>
       </c>
-      <c r="G81">
-        <f>IF(E81&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J81" cm="1">
-        <f t="array" ref="J81:M81">(G81*A81:D81)/(1+EXP(G81*TRANSPOSE($I$2:$I$5)*A81:D81))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K81">
-        <v>36</v>
-      </c>
-      <c r="L81">
-        <v>38.5</v>
-      </c>
-      <c r="M81">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1</v>
       </c>
@@ -3289,25 +1897,8 @@
       <c r="E82" s="3">
         <v>73</v>
       </c>
-      <c r="G82">
-        <f>IF(E82&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J82" cm="1">
-        <f t="array" ref="J82:M82">(G82*A82:D82)/(1+EXP(G82*TRANSPOSE($I$2:$I$5)*A82:D82))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K82">
-        <v>32</v>
-      </c>
-      <c r="L82">
-        <v>26.5</v>
-      </c>
-      <c r="M82">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1</v>
       </c>
@@ -3323,25 +1914,8 @@
       <c r="E83" s="3">
         <v>73</v>
       </c>
-      <c r="G83">
-        <f>IF(E83&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J83" cm="1">
-        <f t="array" ref="J83:M83">(G83*A83:D83)/(1+EXP(G83*TRANSPOSE($I$2:$I$5)*A83:D83))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K83">
-        <v>30.5</v>
-      </c>
-      <c r="L83">
-        <v>45.5</v>
-      </c>
-      <c r="M83">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1</v>
       </c>
@@ -3357,25 +1931,8 @@
       <c r="E84" s="4">
         <v>73</v>
       </c>
-      <c r="G84">
-        <f>IF(E84&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J84" cm="1">
-        <f t="array" ref="J84:M84">(G84*A84:D84)/(1+EXP(G84*TRANSPOSE($I$2:$I$5)*A84:D84))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K84">
-        <v>36</v>
-      </c>
-      <c r="L84">
-        <v>47.5</v>
-      </c>
-      <c r="M84">
-        <v>36.5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1</v>
       </c>
@@ -3391,25 +1948,8 @@
       <c r="E85" s="4">
         <v>73</v>
       </c>
-      <c r="G85">
-        <f>IF(E85&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J85" cm="1">
-        <f t="array" ref="J85:M85">(G85*A85:D85)/(1+EXP(G85*TRANSPOSE($I$2:$I$5)*A85:D85))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K85">
-        <v>35</v>
-      </c>
-      <c r="L85">
-        <v>34.5</v>
-      </c>
-      <c r="M85">
-        <v>30.5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1</v>
       </c>
@@ -3425,25 +1965,8 @@
       <c r="E86" s="3">
         <v>74</v>
       </c>
-      <c r="G86">
-        <f>IF(E86&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J86" cm="1">
-        <f t="array" ref="J86:M86">(G86*A86:D86)/(1+EXP(G86*TRANSPOSE($I$2:$I$5)*A86:D86))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K86">
-        <v>29.5</v>
-      </c>
-      <c r="L86">
-        <v>46.5</v>
-      </c>
-      <c r="M86">
-        <v>38.5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1</v>
       </c>
@@ -3459,25 +1982,8 @@
       <c r="E87" s="3">
         <v>74</v>
       </c>
-      <c r="G87">
-        <f>IF(E87&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J87" cm="1">
-        <f t="array" ref="J87:M87">(G87*A87:D87)/(1+EXP(G87*TRANSPOSE($I$2:$I$5)*A87:D87))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K87">
-        <v>39</v>
-      </c>
-      <c r="L87">
-        <v>11.5</v>
-      </c>
-      <c r="M87">
-        <v>33.5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1</v>
       </c>
@@ -3493,25 +1999,8 @@
       <c r="E88" s="3">
         <v>74</v>
       </c>
-      <c r="G88">
-        <f>IF(E88&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J88" cm="1">
-        <f t="array" ref="J88:M88">(G88*A88:D88)/(1+EXP(G88*TRANSPOSE($I$2:$I$5)*A88:D88))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K88">
-        <v>38.5</v>
-      </c>
-      <c r="L88">
-        <v>40</v>
-      </c>
-      <c r="M88">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1</v>
       </c>
@@ -3527,25 +2016,8 @@
       <c r="E89" s="3">
         <v>74</v>
       </c>
-      <c r="G89">
-        <f>IF(E89&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J89" cm="1">
-        <f t="array" ref="J89:M89">(G89*A89:D89)/(1+EXP(G89*TRANSPOSE($I$2:$I$5)*A89:D89))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K89">
-        <v>42</v>
-      </c>
-      <c r="L89">
-        <v>43</v>
-      </c>
-      <c r="M89">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1</v>
       </c>
@@ -3561,25 +2033,8 @@
       <c r="E90" s="4">
         <v>74</v>
       </c>
-      <c r="G90">
-        <f>IF(E90&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J90" cm="1">
-        <f t="array" ref="J90:M90">(G90*A90:D90)/(1+EXP(G90*TRANSPOSE($I$2:$I$5)*A90:D90))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K90">
-        <v>38</v>
-      </c>
-      <c r="L90">
-        <v>45.5</v>
-      </c>
-      <c r="M90">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1</v>
       </c>
@@ -3595,25 +2050,8 @@
       <c r="E91" s="3">
         <v>74</v>
       </c>
-      <c r="G91">
-        <f>IF(E91&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J91" cm="1">
-        <f t="array" ref="J91:M91">(G91*A91:D91)/(1+EXP(G91*TRANSPOSE($I$2:$I$5)*A91:D91))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K91">
-        <v>44</v>
-      </c>
-      <c r="L91">
-        <v>40.5</v>
-      </c>
-      <c r="M91">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1</v>
       </c>
@@ -3629,25 +2067,8 @@
       <c r="E92" s="3">
         <v>74</v>
       </c>
-      <c r="G92">
-        <f>IF(E92&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J92" cm="1">
-        <f t="array" ref="J92:M92">(G92*A92:D92)/(1+EXP(G92*TRANSPOSE($I$2:$I$5)*A92:D92))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K92">
-        <v>38.5</v>
-      </c>
-      <c r="L92">
-        <v>37</v>
-      </c>
-      <c r="M92">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1</v>
       </c>
@@ -3663,25 +2084,8 @@
       <c r="E93" s="3">
         <v>74</v>
       </c>
-      <c r="G93">
-        <f>IF(E93&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J93" cm="1">
-        <f t="array" ref="J93:M93">(G93*A93:D93)/(1+EXP(G93*TRANSPOSE($I$2:$I$5)*A93:D93))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K93">
-        <v>33.5</v>
-      </c>
-      <c r="L93">
-        <v>32.5</v>
-      </c>
-      <c r="M93">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1</v>
       </c>
@@ -3697,25 +2101,8 @@
       <c r="E94" s="4">
         <v>74</v>
       </c>
-      <c r="G94">
-        <f>IF(E94&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J94" cm="1">
-        <f t="array" ref="J94:M94">(G94*A94:D94)/(1+EXP(G94*TRANSPOSE($I$2:$I$5)*A94:D94))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K94">
-        <v>37.5</v>
-      </c>
-      <c r="L94">
-        <v>45</v>
-      </c>
-      <c r="M94">
-        <v>40.5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1</v>
       </c>
@@ -3731,25 +2118,8 @@
       <c r="E95" s="3">
         <v>74</v>
       </c>
-      <c r="G95">
-        <f>IF(E95&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J95" cm="1">
-        <f t="array" ref="J95:M95">(G95*A95:D95)/(1+EXP(G95*TRANSPOSE($I$2:$I$5)*A95:D95))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K95">
-        <v>40</v>
-      </c>
-      <c r="L95">
-        <v>35.5</v>
-      </c>
-      <c r="M95">
-        <v>41.5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1</v>
       </c>
@@ -3765,25 +2135,8 @@
       <c r="E96" s="3">
         <v>75</v>
       </c>
-      <c r="G96">
-        <f>IF(E96&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J96" cm="1">
-        <f t="array" ref="J96:M96">(G96*A96:D96)/(1+EXP(G96*TRANSPOSE($I$2:$I$5)*A96:D96))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K96">
-        <v>39.5</v>
-      </c>
-      <c r="L96">
-        <v>30.5</v>
-      </c>
-      <c r="M96">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1</v>
       </c>
@@ -3799,25 +2152,8 @@
       <c r="E97" s="3">
         <v>75</v>
       </c>
-      <c r="G97">
-        <f>IF(E97&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J97" cm="1">
-        <f t="array" ref="J97:M97">(G97*A97:D97)/(1+EXP(G97*TRANSPOSE($I$2:$I$5)*A97:D97))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K97">
-        <v>33</v>
-      </c>
-      <c r="L97">
-        <v>46</v>
-      </c>
-      <c r="M97">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1</v>
       </c>
@@ -3833,25 +2169,8 @@
       <c r="E98" s="3">
         <v>75</v>
       </c>
-      <c r="G98">
-        <f>IF(E98&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J98" cm="1">
-        <f t="array" ref="J98:M98">(G98*A98:D98)/(1+EXP(G98*TRANSPOSE($I$2:$I$5)*A98:D98))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K98">
-        <v>33.5</v>
-      </c>
-      <c r="L98">
-        <v>43</v>
-      </c>
-      <c r="M98">
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1</v>
       </c>
@@ -3867,25 +2186,8 @@
       <c r="E99" s="3">
         <v>75</v>
       </c>
-      <c r="G99">
-        <f>IF(E99&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J99" cm="1">
-        <f t="array" ref="J99:M99">(G99*A99:D99)/(1+EXP(G99*TRANSPOSE($I$2:$I$5)*A99:D99))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K99">
-        <v>38</v>
-      </c>
-      <c r="L99">
-        <v>24.5</v>
-      </c>
-      <c r="M99">
-        <v>32.5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1</v>
       </c>
@@ -3901,25 +2203,8 @@
       <c r="E100" s="4">
         <v>75</v>
       </c>
-      <c r="G100">
-        <f>IF(E100&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J100" cm="1">
-        <f t="array" ref="J100:M100">(G100*A100:D100)/(1+EXP(G100*TRANSPOSE($I$2:$I$5)*A100:D100))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K100">
-        <v>36</v>
-      </c>
-      <c r="L100">
-        <v>43.5</v>
-      </c>
-      <c r="M100">
-        <v>40.5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1</v>
       </c>
@@ -3935,25 +2220,8 @@
       <c r="E101" s="4">
         <v>75</v>
       </c>
-      <c r="G101">
-        <f>IF(E101&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J101" cm="1">
-        <f t="array" ref="J101:M101">(G101*A101:D101)/(1+EXP(G101*TRANSPOSE($I$2:$I$5)*A101:D101))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K101">
-        <v>42.5</v>
-      </c>
-      <c r="L101">
-        <v>37.5</v>
-      </c>
-      <c r="M101">
-        <v>24.5</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1</v>
       </c>
@@ -3969,25 +2237,8 @@
       <c r="E102" s="3">
         <v>75</v>
       </c>
-      <c r="G102">
-        <f>IF(E102&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J102" cm="1">
-        <f t="array" ref="J102:M102">(G102*A102:D102)/(1+EXP(G102*TRANSPOSE($I$2:$I$5)*A102:D102))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K102">
-        <v>31.5</v>
-      </c>
-      <c r="L102">
-        <v>41</v>
-      </c>
-      <c r="M102">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1</v>
       </c>
@@ -4003,25 +2254,8 @@
       <c r="E103" s="4">
         <v>76</v>
       </c>
-      <c r="G103">
-        <f>IF(E103&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J103" cm="1">
-        <f t="array" ref="J103:M103">(G103*A103:D103)/(1+EXP(G103*TRANSPOSE($I$2:$I$5)*A103:D103))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K103">
-        <v>36.5</v>
-      </c>
-      <c r="L103">
-        <v>43</v>
-      </c>
-      <c r="M103">
-        <v>41.5</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1</v>
       </c>
@@ -4037,25 +2271,8 @@
       <c r="E104" s="3">
         <v>76</v>
       </c>
-      <c r="G104">
-        <f>IF(E104&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J104" cm="1">
-        <f t="array" ref="J104:M104">(G104*A104:D104)/(1+EXP(G104*TRANSPOSE($I$2:$I$5)*A104:D104))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K104">
-        <v>32.5</v>
-      </c>
-      <c r="L104">
-        <v>47</v>
-      </c>
-      <c r="M104">
-        <v>38.5</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1</v>
       </c>
@@ -4071,25 +2288,8 @@
       <c r="E105" s="4">
         <v>76</v>
       </c>
-      <c r="G105">
-        <f>IF(E105&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J105" cm="1">
-        <f t="array" ref="J105:M105">(G105*A105:D105)/(1+EXP(G105*TRANSPOSE($I$2:$I$5)*A105:D105))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K105">
-        <v>33.5</v>
-      </c>
-      <c r="L105">
-        <v>43.5</v>
-      </c>
-      <c r="M105">
-        <v>40.5</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1</v>
       </c>
@@ -4105,25 +2305,8 @@
       <c r="E106" s="3">
         <v>76</v>
       </c>
-      <c r="G106">
-        <f>IF(E106&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J106" cm="1">
-        <f t="array" ref="J106:M106">(G106*A106:D106)/(1+EXP(G106*TRANSPOSE($I$2:$I$5)*A106:D106))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K106">
-        <v>35.5</v>
-      </c>
-      <c r="L106">
-        <v>42.5</v>
-      </c>
-      <c r="M106">
-        <v>31.5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1</v>
       </c>
@@ -4139,25 +2322,8 @@
       <c r="E107" s="4">
         <v>76</v>
       </c>
-      <c r="G107">
-        <f>IF(E107&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J107" cm="1">
-        <f t="array" ref="J107:M107">(G107*A107:D107)/(1+EXP(G107*TRANSPOSE($I$2:$I$5)*A107:D107))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K107">
-        <v>35.5</v>
-      </c>
-      <c r="L107">
-        <v>47.5</v>
-      </c>
-      <c r="M107">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1</v>
       </c>
@@ -4173,25 +2339,8 @@
       <c r="E108" s="3">
         <v>76</v>
       </c>
-      <c r="G108">
-        <f>IF(E108&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J108" cm="1">
-        <f t="array" ref="J108:M108">(G108*A108:D108)/(1+EXP(G108*TRANSPOSE($I$2:$I$5)*A108:D108))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K108">
-        <v>38.5</v>
-      </c>
-      <c r="L108">
-        <v>44</v>
-      </c>
-      <c r="M108">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1</v>
       </c>
@@ -4207,25 +2356,8 @@
       <c r="E109" s="4">
         <v>76</v>
       </c>
-      <c r="G109">
-        <f>IF(E109&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J109" cm="1">
-        <f t="array" ref="J109:M109">(G109*A109:D109)/(1+EXP(G109*TRANSPOSE($I$2:$I$5)*A109:D109))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K109">
-        <v>29</v>
-      </c>
-      <c r="L109">
-        <v>42.5</v>
-      </c>
-      <c r="M109">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1</v>
       </c>
@@ -4241,25 +2373,8 @@
       <c r="E110" s="4">
         <v>76</v>
       </c>
-      <c r="G110">
-        <f>IF(E110&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J110" cm="1">
-        <f t="array" ref="J110:M110">(G110*A110:D110)/(1+EXP(G110*TRANSPOSE($I$2:$I$5)*A110:D110))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K110">
-        <v>44</v>
-      </c>
-      <c r="L110">
-        <v>43</v>
-      </c>
-      <c r="M110">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1</v>
       </c>
@@ -4275,25 +2390,8 @@
       <c r="E111" s="4">
         <v>76</v>
       </c>
-      <c r="G111">
-        <f>IF(E111&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J111" cm="1">
-        <f t="array" ref="J111:M111">(G111*A111:D111)/(1+EXP(G111*TRANSPOSE($I$2:$I$5)*A111:D111))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K111">
-        <v>39.5</v>
-      </c>
-      <c r="L111">
-        <v>46</v>
-      </c>
-      <c r="M111">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1</v>
       </c>
@@ -4309,25 +2407,8 @@
       <c r="E112" s="3">
         <v>76</v>
       </c>
-      <c r="G112">
-        <f>IF(E112&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J112" cm="1">
-        <f t="array" ref="J112:M112">(G112*A112:D112)/(1+EXP(G112*TRANSPOSE($I$2:$I$5)*A112:D112))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K112">
-        <v>41.5</v>
-      </c>
-      <c r="L112">
-        <v>19</v>
-      </c>
-      <c r="M112">
-        <v>34.5</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1</v>
       </c>
@@ -4343,25 +2424,8 @@
       <c r="E113" s="3">
         <v>77</v>
       </c>
-      <c r="G113">
-        <f>IF(E113&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J113" cm="1">
-        <f t="array" ref="J113:M113">(G113*A113:D113)/(1+EXP(G113*TRANSPOSE($I$2:$I$5)*A113:D113))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K113">
-        <v>37</v>
-      </c>
-      <c r="L113">
-        <v>38</v>
-      </c>
-      <c r="M113">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1</v>
       </c>
@@ -4377,25 +2441,8 @@
       <c r="E114" s="3">
         <v>77</v>
       </c>
-      <c r="G114">
-        <f>IF(E114&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J114" cm="1">
-        <f t="array" ref="J114:M114">(G114*A114:D114)/(1+EXP(G114*TRANSPOSE($I$2:$I$5)*A114:D114))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K114">
-        <v>34</v>
-      </c>
-      <c r="L114">
-        <v>41.5</v>
-      </c>
-      <c r="M114">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1</v>
       </c>
@@ -4411,25 +2458,8 @@
       <c r="E115" s="3">
         <v>77</v>
       </c>
-      <c r="G115">
-        <f>IF(E115&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J115" cm="1">
-        <f t="array" ref="J115:M115">(G115*A115:D115)/(1+EXP(G115*TRANSPOSE($I$2:$I$5)*A115:D115))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K115">
-        <v>29.5</v>
-      </c>
-      <c r="L115">
-        <v>43.5</v>
-      </c>
-      <c r="M115">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1</v>
       </c>
@@ -4445,25 +2475,8 @@
       <c r="E116" s="4">
         <v>77</v>
       </c>
-      <c r="G116">
-        <f>IF(E116&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J116" cm="1">
-        <f t="array" ref="J116:M116">(G116*A116:D116)/(1+EXP(G116*TRANSPOSE($I$2:$I$5)*A116:D116))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K116">
-        <v>36.5</v>
-      </c>
-      <c r="L116">
-        <v>39.5</v>
-      </c>
-      <c r="M116">
-        <v>41.5</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1</v>
       </c>
@@ -4479,25 +2492,8 @@
       <c r="E117" s="4">
         <v>77</v>
       </c>
-      <c r="G117">
-        <f>IF(E117&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J117" cm="1">
-        <f t="array" ref="J117:M117">(G117*A117:D117)/(1+EXP(G117*TRANSPOSE($I$2:$I$5)*A117:D117))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K117">
-        <v>37.5</v>
-      </c>
-      <c r="L117">
-        <v>48</v>
-      </c>
-      <c r="M117">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1</v>
       </c>
@@ -4513,25 +2509,8 @@
       <c r="E118" s="3">
         <v>77</v>
       </c>
-      <c r="G118">
-        <f>IF(E118&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J118" cm="1">
-        <f t="array" ref="J118:M118">(G118*A118:D118)/(1+EXP(G118*TRANSPOSE($I$2:$I$5)*A118:D118))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K118">
-        <v>42</v>
-      </c>
-      <c r="L118">
-        <v>26</v>
-      </c>
-      <c r="M118">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1</v>
       </c>
@@ -4547,25 +2526,8 @@
       <c r="E119" s="3">
         <v>77</v>
       </c>
-      <c r="G119">
-        <f>IF(E119&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J119" cm="1">
-        <f t="array" ref="J119:M119">(G119*A119:D119)/(1+EXP(G119*TRANSPOSE($I$2:$I$5)*A119:D119))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K119">
-        <v>39</v>
-      </c>
-      <c r="L119">
-        <v>35.5</v>
-      </c>
-      <c r="M119">
-        <v>44.5</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1</v>
       </c>
@@ -4581,25 +2543,8 @@
       <c r="E120" s="3">
         <v>77</v>
       </c>
-      <c r="G120">
-        <f>IF(E120&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J120" cm="1">
-        <f t="array" ref="J120:M120">(G120*A120:D120)/(1+EXP(G120*TRANSPOSE($I$2:$I$5)*A120:D120))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K120">
-        <v>34.5</v>
-      </c>
-      <c r="L120">
-        <v>43</v>
-      </c>
-      <c r="M120">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1</v>
       </c>
@@ -4615,25 +2560,8 @@
       <c r="E121" s="3">
         <v>77</v>
       </c>
-      <c r="G121">
-        <f>IF(E121&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J121" cm="1">
-        <f t="array" ref="J121:M121">(G121*A121:D121)/(1+EXP(G121*TRANSPOSE($I$2:$I$5)*A121:D121))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K121">
-        <v>35</v>
-      </c>
-      <c r="L121">
-        <v>42</v>
-      </c>
-      <c r="M121">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1</v>
       </c>
@@ -4649,25 +2577,8 @@
       <c r="E122" s="3">
         <v>77</v>
       </c>
-      <c r="G122">
-        <f>IF(E122&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J122" cm="1">
-        <f t="array" ref="J122:M122">(G122*A122:D122)/(1+EXP(G122*TRANSPOSE($I$2:$I$5)*A122:D122))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K122">
-        <v>37</v>
-      </c>
-      <c r="L122">
-        <v>42</v>
-      </c>
-      <c r="M122">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1</v>
       </c>
@@ -4683,25 +2594,8 @@
       <c r="E123" s="3">
         <v>77</v>
       </c>
-      <c r="G123">
-        <f>IF(E123&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J123" cm="1">
-        <f t="array" ref="J123:M123">(G123*A123:D123)/(1+EXP(G123*TRANSPOSE($I$2:$I$5)*A123:D123))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K123">
-        <v>35</v>
-      </c>
-      <c r="L123">
-        <v>43.5</v>
-      </c>
-      <c r="M123">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1</v>
       </c>
@@ -4717,25 +2611,8 @@
       <c r="E124" s="4">
         <v>78</v>
       </c>
-      <c r="G124">
-        <f>IF(E124&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J124" cm="1">
-        <f t="array" ref="J124:M124">(G124*A124:D124)/(1+EXP(G124*TRANSPOSE($I$2:$I$5)*A124:D124))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K124">
-        <v>40</v>
-      </c>
-      <c r="L124">
-        <v>33.5</v>
-      </c>
-      <c r="M124">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1</v>
       </c>
@@ -4751,25 +2628,8 @@
       <c r="E125" s="4">
         <v>78</v>
       </c>
-      <c r="G125">
-        <f>IF(E125&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J125" cm="1">
-        <f t="array" ref="J125:M125">(G125*A125:D125)/(1+EXP(G125*TRANSPOSE($I$2:$I$5)*A125:D125))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K125">
-        <v>39.5</v>
-      </c>
-      <c r="L125">
-        <v>43.5</v>
-      </c>
-      <c r="M125">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1</v>
       </c>
@@ -4785,25 +2645,8 @@
       <c r="E126" s="3">
         <v>78</v>
       </c>
-      <c r="G126">
-        <f>IF(E126&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J126" cm="1">
-        <f t="array" ref="J126:M126">(G126*A126:D126)/(1+EXP(G126*TRANSPOSE($I$2:$I$5)*A126:D126))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K126">
-        <v>33</v>
-      </c>
-      <c r="L126">
-        <v>41.5</v>
-      </c>
-      <c r="M126">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1</v>
       </c>
@@ -4819,25 +2662,8 @@
       <c r="E127" s="4">
         <v>78</v>
       </c>
-      <c r="G127">
-        <f>IF(E127&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J127" cm="1">
-        <f t="array" ref="J127:M127">(G127*A127:D127)/(1+EXP(G127*TRANSPOSE($I$2:$I$5)*A127:D127))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K127">
-        <v>36</v>
-      </c>
-      <c r="L127">
-        <v>49</v>
-      </c>
-      <c r="M127">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1</v>
       </c>
@@ -4853,25 +2679,8 @@
       <c r="E128" s="3">
         <v>78</v>
       </c>
-      <c r="G128">
-        <f>IF(E128&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J128" cm="1">
-        <f t="array" ref="J128:M128">(G128*A128:D128)/(1+EXP(G128*TRANSPOSE($I$2:$I$5)*A128:D128))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K128">
-        <v>34.5</v>
-      </c>
-      <c r="L128">
-        <v>47.5</v>
-      </c>
-      <c r="M128">
-        <v>36.5</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1</v>
       </c>
@@ -4887,25 +2696,8 @@
       <c r="E129" s="3">
         <v>78</v>
       </c>
-      <c r="G129">
-        <f>IF(E129&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J129" cm="1">
-        <f t="array" ref="J129:M129">(G129*A129:D129)/(1+EXP(G129*TRANSPOSE($I$2:$I$5)*A129:D129))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K129">
-        <v>37.5</v>
-      </c>
-      <c r="L129">
-        <v>44.5</v>
-      </c>
-      <c r="M129">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1</v>
       </c>
@@ -4921,25 +2713,8 @@
       <c r="E130" s="4">
         <v>78</v>
       </c>
-      <c r="G130">
-        <f>IF(E130&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J130" cm="1">
-        <f t="array" ref="J130:M130">(G130*A130:D130)/(1+EXP(G130*TRANSPOSE($I$2:$I$5)*A130:D130))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K130">
-        <v>38</v>
-      </c>
-      <c r="L130">
-        <v>46</v>
-      </c>
-      <c r="M130">
-        <v>45.5</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1</v>
       </c>
@@ -4955,25 +2730,8 @@
       <c r="E131" s="4">
         <v>78</v>
       </c>
-      <c r="G131">
-        <f>IF(E131&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J131" cm="1">
-        <f t="array" ref="J131:M131">(G131*A131:D131)/(1+EXP(G131*TRANSPOSE($I$2:$I$5)*A131:D131))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K131">
-        <v>38</v>
-      </c>
-      <c r="L131">
-        <v>39.5</v>
-      </c>
-      <c r="M131">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1</v>
       </c>
@@ -4989,25 +2747,8 @@
       <c r="E132" s="3">
         <v>78</v>
       </c>
-      <c r="G132">
-        <f>IF(E132&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J132" cm="1">
-        <f t="array" ref="J132:M132">(G132*A132:D132)/(1+EXP(G132*TRANSPOSE($I$2:$I$5)*A132:D132))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K132">
-        <v>38.5</v>
-      </c>
-      <c r="L132">
-        <v>30.5</v>
-      </c>
-      <c r="M132">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1</v>
       </c>
@@ -5023,25 +2764,8 @@
       <c r="E133" s="3">
         <v>78</v>
       </c>
-      <c r="G133">
-        <f>IF(E133&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J133" cm="1">
-        <f t="array" ref="J133:M133">(G133*A133:D133)/(1+EXP(G133*TRANSPOSE($I$2:$I$5)*A133:D133))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K133">
-        <v>30</v>
-      </c>
-      <c r="L133">
-        <v>36.5</v>
-      </c>
-      <c r="M133">
-        <v>40.5</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1</v>
       </c>
@@ -5057,25 +2781,8 @@
       <c r="E134" s="3">
         <v>78</v>
       </c>
-      <c r="G134">
-        <f>IF(E134&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J134" cm="1">
-        <f t="array" ref="J134:M134">(G134*A134:D134)/(1+EXP(G134*TRANSPOSE($I$2:$I$5)*A134:D134))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K134">
-        <v>36.5</v>
-      </c>
-      <c r="L134">
-        <v>37.5</v>
-      </c>
-      <c r="M134">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1</v>
       </c>
@@ -5091,25 +2798,8 @@
       <c r="E135" s="4">
         <v>78</v>
       </c>
-      <c r="G135">
-        <f>IF(E135&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J135" cm="1">
-        <f t="array" ref="J135:M135">(G135*A135:D135)/(1+EXP(G135*TRANSPOSE($I$2:$I$5)*A135:D135))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K135">
-        <v>39</v>
-      </c>
-      <c r="L135">
-        <v>44</v>
-      </c>
-      <c r="M135">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1</v>
       </c>
@@ -5125,25 +2815,8 @@
       <c r="E136" s="4">
         <v>79</v>
       </c>
-      <c r="G136">
-        <f>IF(E136&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J136" cm="1">
-        <f t="array" ref="J136:M136">(G136*A136:D136)/(1+EXP(G136*TRANSPOSE($I$2:$I$5)*A136:D136))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K136">
-        <v>35</v>
-      </c>
-      <c r="L136">
-        <v>42.5</v>
-      </c>
-      <c r="M136">
-        <v>35.5</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1</v>
       </c>
@@ -5159,25 +2832,8 @@
       <c r="E137" s="3">
         <v>79</v>
       </c>
-      <c r="G137">
-        <f>IF(E137&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J137" cm="1">
-        <f t="array" ref="J137:M137">(G137*A137:D137)/(1+EXP(G137*TRANSPOSE($I$2:$I$5)*A137:D137))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K137">
-        <v>34</v>
-      </c>
-      <c r="L137">
-        <v>43</v>
-      </c>
-      <c r="M137">
-        <v>41.5</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1</v>
       </c>
@@ -5193,25 +2849,8 @@
       <c r="E138" s="4">
         <v>79</v>
       </c>
-      <c r="G138">
-        <f>IF(E138&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J138" cm="1">
-        <f t="array" ref="J138:M138">(G138*A138:D138)/(1+EXP(G138*TRANSPOSE($I$2:$I$5)*A138:D138))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K138">
-        <v>39.5</v>
-      </c>
-      <c r="L138">
-        <v>48</v>
-      </c>
-      <c r="M138">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1</v>
       </c>
@@ -5227,25 +2866,8 @@
       <c r="E139" s="3">
         <v>79</v>
       </c>
-      <c r="G139">
-        <f>IF(E139&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J139" cm="1">
-        <f t="array" ref="J139:M139">(G139*A139:D139)/(1+EXP(G139*TRANSPOSE($I$2:$I$5)*A139:D139))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K139">
-        <v>37.5</v>
-      </c>
-      <c r="L139">
-        <v>42.5</v>
-      </c>
-      <c r="M139">
-        <v>36.5</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1</v>
       </c>
@@ -5261,25 +2883,8 @@
       <c r="E140" s="3">
         <v>79</v>
       </c>
-      <c r="G140">
-        <f>IF(E140&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J140" cm="1">
-        <f t="array" ref="J140:M140">(G140*A140:D140)/(1+EXP(G140*TRANSPOSE($I$2:$I$5)*A140:D140))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K140">
-        <v>42.5</v>
-      </c>
-      <c r="L140">
-        <v>40</v>
-      </c>
-      <c r="M140">
-        <v>32.5</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1</v>
       </c>
@@ -5295,25 +2900,8 @@
       <c r="E141" s="3">
         <v>79</v>
       </c>
-      <c r="G141">
-        <f>IF(E141&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J141" cm="1">
-        <f t="array" ref="J141:M141">(G141*A141:D141)/(1+EXP(G141*TRANSPOSE($I$2:$I$5)*A141:D141))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K141">
-        <v>36.5</v>
-      </c>
-      <c r="L141">
-        <v>42.5</v>
-      </c>
-      <c r="M141">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1</v>
       </c>
@@ -5329,25 +2917,8 @@
       <c r="E142" s="3">
         <v>79</v>
       </c>
-      <c r="G142">
-        <f>IF(E142&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J142" cm="1">
-        <f t="array" ref="J142:M142">(G142*A142:D142)/(1+EXP(G142*TRANSPOSE($I$2:$I$5)*A142:D142))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K142">
-        <v>43</v>
-      </c>
-      <c r="L142">
-        <v>43</v>
-      </c>
-      <c r="M142">
-        <v>44.5</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1</v>
       </c>
@@ -5363,25 +2934,8 @@
       <c r="E143" s="3">
         <v>79</v>
       </c>
-      <c r="G143">
-        <f>IF(E143&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J143" cm="1">
-        <f t="array" ref="J143:M143">(G143*A143:D143)/(1+EXP(G143*TRANSPOSE($I$2:$I$5)*A143:D143))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K143">
-        <v>38</v>
-      </c>
-      <c r="L143">
-        <v>40</v>
-      </c>
-      <c r="M143">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1</v>
       </c>
@@ -5397,25 +2951,8 @@
       <c r="E144" s="3">
         <v>80</v>
       </c>
-      <c r="G144">
-        <f>IF(E144&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J144" cm="1">
-        <f t="array" ref="J144:M144">(G144*A144:D144)/(1+EXP(G144*TRANSPOSE($I$2:$I$5)*A144:D144))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K144">
-        <v>39</v>
-      </c>
-      <c r="L144">
-        <v>33.5</v>
-      </c>
-      <c r="M144">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1</v>
       </c>
@@ -5431,25 +2968,8 @@
       <c r="E145" s="3">
         <v>80</v>
       </c>
-      <c r="G145">
-        <f>IF(E145&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J145" cm="1">
-        <f t="array" ref="J145:M145">(G145*A145:D145)/(1+EXP(G145*TRANSPOSE($I$2:$I$5)*A145:D145))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K145">
-        <v>33.5</v>
-      </c>
-      <c r="L145">
-        <v>38</v>
-      </c>
-      <c r="M145">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1</v>
       </c>
@@ -5465,25 +2985,8 @@
       <c r="E146" s="3">
         <v>80</v>
       </c>
-      <c r="G146">
-        <f>IF(E146&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J146" cm="1">
-        <f t="array" ref="J146:M146">(G146*A146:D146)/(1+EXP(G146*TRANSPOSE($I$2:$I$5)*A146:D146))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K146">
-        <v>39</v>
-      </c>
-      <c r="L146">
-        <v>45</v>
-      </c>
-      <c r="M146">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1</v>
       </c>
@@ -5499,25 +3002,8 @@
       <c r="E147" s="4">
         <v>80</v>
       </c>
-      <c r="G147">
-        <f>IF(E147&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J147" cm="1">
-        <f t="array" ref="J147:M147">(G147*A147:D147)/(1+EXP(G147*TRANSPOSE($I$2:$I$5)*A147:D147))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K147">
-        <v>32</v>
-      </c>
-      <c r="L147">
-        <v>50</v>
-      </c>
-      <c r="M147">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>1</v>
       </c>
@@ -5533,25 +3019,8 @@
       <c r="E148" s="4">
         <v>80</v>
       </c>
-      <c r="G148">
-        <f>IF(E148&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J148" cm="1">
-        <f t="array" ref="J148:M148">(G148*A148:D148)/(1+EXP(G148*TRANSPOSE($I$2:$I$5)*A148:D148))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K148">
-        <v>39.5</v>
-      </c>
-      <c r="L148">
-        <v>43.5</v>
-      </c>
-      <c r="M148">
-        <v>43.5</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>1</v>
       </c>
@@ -5567,25 +3036,8 @@
       <c r="E149" s="4">
         <v>80</v>
       </c>
-      <c r="G149">
-        <f>IF(E149&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J149" cm="1">
-        <f t="array" ref="J149:M149">(G149*A149:D149)/(1+EXP(G149*TRANSPOSE($I$2:$I$5)*A149:D149))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K149">
-        <v>49</v>
-      </c>
-      <c r="L149">
-        <v>43</v>
-      </c>
-      <c r="M149">
-        <v>44.5</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1</v>
       </c>
@@ -5601,25 +3053,8 @@
       <c r="E150" s="3">
         <v>80</v>
       </c>
-      <c r="G150">
-        <f>IF(E150&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J150" cm="1">
-        <f t="array" ref="J150:M150">(G150*A150:D150)/(1+EXP(G150*TRANSPOSE($I$2:$I$5)*A150:D150))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K150">
-        <v>42</v>
-      </c>
-      <c r="L150">
-        <v>32</v>
-      </c>
-      <c r="M150">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1</v>
       </c>
@@ -5635,25 +3070,8 @@
       <c r="E151" s="3">
         <v>80</v>
       </c>
-      <c r="G151">
-        <f>IF(E151&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J151" cm="1">
-        <f t="array" ref="J151:M151">(G151*A151:D151)/(1+EXP(G151*TRANSPOSE($I$2:$I$5)*A151:D151))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K151">
-        <v>46</v>
-      </c>
-      <c r="L151">
-        <v>39</v>
-      </c>
-      <c r="M151">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1</v>
       </c>
@@ -5669,25 +3087,8 @@
       <c r="E152" s="3">
         <v>80</v>
       </c>
-      <c r="G152">
-        <f>IF(E152&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J152" cm="1">
-        <f t="array" ref="J152:M152">(G152*A152:D152)/(1+EXP(G152*TRANSPOSE($I$2:$I$5)*A152:D152))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K152">
-        <v>39.5</v>
-      </c>
-      <c r="L152">
-        <v>41.5</v>
-      </c>
-      <c r="M152">
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1</v>
       </c>
@@ -5703,25 +3104,8 @@
       <c r="E153" s="3">
         <v>80</v>
       </c>
-      <c r="G153">
-        <f>IF(E153&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J153" cm="1">
-        <f t="array" ref="J153:M153">(G153*A153:D153)/(1+EXP(G153*TRANSPOSE($I$2:$I$5)*A153:D153))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K153">
-        <v>42</v>
-      </c>
-      <c r="L153">
-        <v>41</v>
-      </c>
-      <c r="M153">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1</v>
       </c>
@@ -5737,25 +3121,8 @@
       <c r="E154" s="4">
         <v>80</v>
       </c>
-      <c r="G154">
-        <f>IF(E154&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J154" cm="1">
-        <f t="array" ref="J154:M154">(G154*A154:D154)/(1+EXP(G154*TRANSPOSE($I$2:$I$5)*A154:D154))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K154">
-        <v>36</v>
-      </c>
-      <c r="L154">
-        <v>50</v>
-      </c>
-      <c r="M154">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1</v>
       </c>
@@ -5771,25 +3138,8 @@
       <c r="E155" s="4">
         <v>80</v>
       </c>
-      <c r="G155">
-        <f>IF(E155&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J155" cm="1">
-        <f t="array" ref="J155:M155">(G155*A155:D155)/(1+EXP(G155*TRANSPOSE($I$2:$I$5)*A155:D155))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K155">
-        <v>42</v>
-      </c>
-      <c r="L155">
-        <v>45.5</v>
-      </c>
-      <c r="M155">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1</v>
       </c>
@@ -5805,25 +3155,8 @@
       <c r="E156" s="3">
         <v>80</v>
       </c>
-      <c r="G156">
-        <f>IF(E156&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J156" cm="1">
-        <f t="array" ref="J156:M156">(G156*A156:D156)/(1+EXP(G156*TRANSPOSE($I$2:$I$5)*A156:D156))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K156">
-        <v>39</v>
-      </c>
-      <c r="L156">
-        <v>43</v>
-      </c>
-      <c r="M156">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1</v>
       </c>
@@ -5839,25 +3172,8 @@
       <c r="E157" s="3">
         <v>80</v>
       </c>
-      <c r="G157">
-        <f>IF(E157&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J157" cm="1">
-        <f t="array" ref="J157:M157">(G157*A157:D157)/(1+EXP(G157*TRANSPOSE($I$2:$I$5)*A157:D157))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K157">
-        <v>38.5</v>
-      </c>
-      <c r="L157">
-        <v>37.5</v>
-      </c>
-      <c r="M157">
-        <v>41.5</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1</v>
       </c>
@@ -5873,25 +3189,8 @@
       <c r="E158" s="3">
         <v>81</v>
       </c>
-      <c r="G158">
-        <f>IF(E158&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J158" cm="1">
-        <f t="array" ref="J158:M158">(G158*A158:D158)/(1+EXP(G158*TRANSPOSE($I$2:$I$5)*A158:D158))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K158">
-        <v>38.5</v>
-      </c>
-      <c r="L158">
-        <v>47</v>
-      </c>
-      <c r="M158">
-        <v>34.5</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1</v>
       </c>
@@ -5907,25 +3206,8 @@
       <c r="E159" s="4">
         <v>81</v>
       </c>
-      <c r="G159">
-        <f>IF(E159&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J159" cm="1">
-        <f t="array" ref="J159:M159">(G159*A159:D159)/(1+EXP(G159*TRANSPOSE($I$2:$I$5)*A159:D159))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K159">
-        <v>49</v>
-      </c>
-      <c r="L159">
-        <v>37</v>
-      </c>
-      <c r="M159">
-        <v>38.5</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1</v>
       </c>
@@ -5941,25 +3223,8 @@
       <c r="E160" s="3">
         <v>81</v>
       </c>
-      <c r="G160">
-        <f>IF(E160&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J160" cm="1">
-        <f t="array" ref="J160:M160">(G160*A160:D160)/(1+EXP(G160*TRANSPOSE($I$2:$I$5)*A160:D160))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K160">
-        <v>45</v>
-      </c>
-      <c r="L160">
-        <v>48.5</v>
-      </c>
-      <c r="M160">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>1</v>
       </c>
@@ -5975,25 +3240,8 @@
       <c r="E161" s="3">
         <v>81</v>
       </c>
-      <c r="G161">
-        <f>IF(E161&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J161" cm="1">
-        <f t="array" ref="J161:M161">(G161*A161:D161)/(1+EXP(G161*TRANSPOSE($I$2:$I$5)*A161:D161))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K161">
-        <v>40</v>
-      </c>
-      <c r="L161">
-        <v>19</v>
-      </c>
-      <c r="M161">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1</v>
       </c>
@@ -6009,25 +3257,8 @@
       <c r="E162" s="4">
         <v>81</v>
       </c>
-      <c r="G162">
-        <f>IF(E162&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J162" cm="1">
-        <f t="array" ref="J162:M162">(G162*A162:D162)/(1+EXP(G162*TRANSPOSE($I$2:$I$5)*A162:D162))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K162">
-        <v>37</v>
-      </c>
-      <c r="L162">
-        <v>45.5</v>
-      </c>
-      <c r="M162">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1</v>
       </c>
@@ -6043,25 +3274,8 @@
       <c r="E163" s="3">
         <v>81</v>
       </c>
-      <c r="G163">
-        <f>IF(E163&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J163" cm="1">
-        <f t="array" ref="J163:M163">(G163*A163:D163)/(1+EXP(G163*TRANSPOSE($I$2:$I$5)*A163:D163))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K163">
-        <v>43.5</v>
-      </c>
-      <c r="L163">
-        <v>22.5</v>
-      </c>
-      <c r="M163">
-        <v>43.5</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1</v>
       </c>
@@ -6077,25 +3291,8 @@
       <c r="E164" s="4">
         <v>81</v>
       </c>
-      <c r="G164">
-        <f>IF(E164&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J164" cm="1">
-        <f t="array" ref="J164:M164">(G164*A164:D164)/(1+EXP(G164*TRANSPOSE($I$2:$I$5)*A164:D164))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K164">
-        <v>35</v>
-      </c>
-      <c r="L164">
-        <v>47</v>
-      </c>
-      <c r="M164">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1</v>
       </c>
@@ -6111,25 +3308,8 @@
       <c r="E165" s="3">
         <v>82</v>
       </c>
-      <c r="G165">
-        <f>IF(E165&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J165" cm="1">
-        <f t="array" ref="J165:M165">(G165*A165:D165)/(1+EXP(G165*TRANSPOSE($I$2:$I$5)*A165:D165))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K165">
-        <v>43.5</v>
-      </c>
-      <c r="L165">
-        <v>45</v>
-      </c>
-      <c r="M165">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>1</v>
       </c>
@@ -6145,25 +3325,8 @@
       <c r="E166" s="4">
         <v>82</v>
       </c>
-      <c r="G166">
-        <f>IF(E166&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J166" cm="1">
-        <f t="array" ref="J166:M166">(G166*A166:D166)/(1+EXP(G166*TRANSPOSE($I$2:$I$5)*A166:D166))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K166">
-        <v>42.5</v>
-      </c>
-      <c r="L166">
-        <v>46.5</v>
-      </c>
-      <c r="M166">
-        <v>40.5</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1</v>
       </c>
@@ -6179,25 +3342,8 @@
       <c r="E167" s="4">
         <v>82</v>
       </c>
-      <c r="G167">
-        <f>IF(E167&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J167" cm="1">
-        <f t="array" ref="J167:M167">(G167*A167:D167)/(1+EXP(G167*TRANSPOSE($I$2:$I$5)*A167:D167))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K167">
-        <v>41.5</v>
-      </c>
-      <c r="L167">
-        <v>23</v>
-      </c>
-      <c r="M167">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1</v>
       </c>
@@ -6213,25 +3359,8 @@
       <c r="E168" s="3">
         <v>82</v>
       </c>
-      <c r="G168">
-        <f>IF(E168&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J168" cm="1">
-        <f t="array" ref="J168:M168">(G168*A168:D168)/(1+EXP(G168*TRANSPOSE($I$2:$I$5)*A168:D168))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K168">
-        <v>38</v>
-      </c>
-      <c r="L168">
-        <v>45</v>
-      </c>
-      <c r="M168">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1</v>
       </c>
@@ -6247,25 +3376,8 @@
       <c r="E169" s="4">
         <v>82</v>
       </c>
-      <c r="G169">
-        <f>IF(E169&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J169" cm="1">
-        <f t="array" ref="J169:M169">(G169*A169:D169)/(1+EXP(G169*TRANSPOSE($I$2:$I$5)*A169:D169))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K169">
-        <v>45</v>
-      </c>
-      <c r="L169">
-        <v>49</v>
-      </c>
-      <c r="M169">
-        <v>45.5</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1</v>
       </c>
@@ -6281,25 +3393,8 @@
       <c r="E170" s="4">
         <v>82</v>
       </c>
-      <c r="G170">
-        <f>IF(E170&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J170" cm="1">
-        <f t="array" ref="J170:M170">(G170*A170:D170)/(1+EXP(G170*TRANSPOSE($I$2:$I$5)*A170:D170))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K170">
-        <v>42.5</v>
-      </c>
-      <c r="L170">
-        <v>35</v>
-      </c>
-      <c r="M170">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>1</v>
       </c>
@@ -6315,25 +3410,8 @@
       <c r="E171" s="3">
         <v>82</v>
       </c>
-      <c r="G171">
-        <f>IF(E171&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J171" cm="1">
-        <f t="array" ref="J171:M171">(G171*A171:D171)/(1+EXP(G171*TRANSPOSE($I$2:$I$5)*A171:D171))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K171">
-        <v>49</v>
-      </c>
-      <c r="L171">
-        <v>18</v>
-      </c>
-      <c r="M171">
-        <v>45.5</v>
-      </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>1</v>
       </c>
@@ -6349,25 +3427,8 @@
       <c r="E172" s="3">
         <v>82</v>
       </c>
-      <c r="G172">
-        <f>IF(E172&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J172" cm="1">
-        <f t="array" ref="J172:M172">(G172*A172:D172)/(1+EXP(G172*TRANSPOSE($I$2:$I$5)*A172:D172))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K172">
-        <v>43</v>
-      </c>
-      <c r="L172">
-        <v>40.5</v>
-      </c>
-      <c r="M172">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>1</v>
       </c>
@@ -6383,25 +3444,8 @@
       <c r="E173" s="3">
         <v>83</v>
       </c>
-      <c r="G173">
-        <f>IF(E173&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J173" cm="1">
-        <f t="array" ref="J173:M173">(G173*A173:D173)/(1+EXP(G173*TRANSPOSE($I$2:$I$5)*A173:D173))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K173">
-        <v>37.5</v>
-      </c>
-      <c r="L173">
-        <v>32.5</v>
-      </c>
-      <c r="M173">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1</v>
       </c>
@@ -6417,25 +3461,8 @@
       <c r="E174" s="3">
         <v>83</v>
       </c>
-      <c r="G174">
-        <f>IF(E174&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J174" cm="1">
-        <f t="array" ref="J174:M174">(G174*A174:D174)/(1+EXP(G174*TRANSPOSE($I$2:$I$5)*A174:D174))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K174">
-        <v>44.5</v>
-      </c>
-      <c r="L174">
-        <v>4</v>
-      </c>
-      <c r="M174">
-        <v>45.5</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1</v>
       </c>
@@ -6451,25 +3478,8 @@
       <c r="E175" s="4">
         <v>83</v>
       </c>
-      <c r="G175">
-        <f>IF(E175&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J175" cm="1">
-        <f t="array" ref="J175:M175">(G175*A175:D175)/(1+EXP(G175*TRANSPOSE($I$2:$I$5)*A175:D175))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K175">
-        <v>46.5</v>
-      </c>
-      <c r="L175">
-        <v>48.5</v>
-      </c>
-      <c r="M175">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1</v>
       </c>
@@ -6485,25 +3495,8 @@
       <c r="E176" s="3">
         <v>83</v>
       </c>
-      <c r="G176">
-        <f>IF(E176&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J176" cm="1">
-        <f t="array" ref="J176:M176">(G176*A176:D176)/(1+EXP(G176*TRANSPOSE($I$2:$I$5)*A176:D176))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K176">
-        <v>40</v>
-      </c>
-      <c r="L176">
-        <v>39.5</v>
-      </c>
-      <c r="M176">
-        <v>38.5</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1</v>
       </c>
@@ -6519,25 +3512,8 @@
       <c r="E177" s="4">
         <v>83</v>
       </c>
-      <c r="G177">
-        <f>IF(E177&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J177" cm="1">
-        <f t="array" ref="J177:M177">(G177*A177:D177)/(1+EXP(G177*TRANSPOSE($I$2:$I$5)*A177:D177))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K177">
-        <v>38.5</v>
-      </c>
-      <c r="L177">
-        <v>45.5</v>
-      </c>
-      <c r="M177">
-        <v>44.5</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1</v>
       </c>
@@ -6553,25 +3529,8 @@
       <c r="E178" s="3">
         <v>83</v>
       </c>
-      <c r="G178">
-        <f>IF(E178&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J178" cm="1">
-        <f t="array" ref="J178:M178">(G178*A178:D178)/(1+EXP(G178*TRANSPOSE($I$2:$I$5)*A178:D178))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K178">
-        <v>42.5</v>
-      </c>
-      <c r="L178">
-        <v>21.5</v>
-      </c>
-      <c r="M178">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>1</v>
       </c>
@@ -6587,25 +3546,8 @@
       <c r="E179" s="3">
         <v>83</v>
       </c>
-      <c r="G179">
-        <f>IF(E179&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J179" cm="1">
-        <f t="array" ref="J179:M179">(G179*A179:D179)/(1+EXP(G179*TRANSPOSE($I$2:$I$5)*A179:D179))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K179">
-        <v>45</v>
-      </c>
-      <c r="L179">
-        <v>49.5</v>
-      </c>
-      <c r="M179">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>1</v>
       </c>
@@ -6621,25 +3563,8 @@
       <c r="E180" s="4">
         <v>83</v>
       </c>
-      <c r="G180">
-        <f>IF(E180&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J180" cm="1">
-        <f t="array" ref="J180:M180">(G180*A180:D180)/(1+EXP(G180*TRANSPOSE($I$2:$I$5)*A180:D180))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K180">
-        <v>37.5</v>
-      </c>
-      <c r="L180">
-        <v>48</v>
-      </c>
-      <c r="M180">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>1</v>
       </c>
@@ -6655,25 +3580,8 @@
       <c r="E181" s="4">
         <v>83</v>
       </c>
-      <c r="G181">
-        <f>IF(E181&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J181" cm="1">
-        <f t="array" ref="J181:M181">(G181*A181:D181)/(1+EXP(G181*TRANSPOSE($I$2:$I$5)*A181:D181))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K181">
-        <v>44.5</v>
-      </c>
-      <c r="L181">
-        <v>49</v>
-      </c>
-      <c r="M181">
-        <v>38.5</v>
-      </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1</v>
       </c>
@@ -6689,25 +3597,8 @@
       <c r="E182" s="3">
         <v>83</v>
       </c>
-      <c r="G182">
-        <f>IF(E182&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J182" cm="1">
-        <f t="array" ref="J182:M182">(G182*A182:D182)/(1+EXP(G182*TRANSPOSE($I$2:$I$5)*A182:D182))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K182">
-        <v>36.5</v>
-      </c>
-      <c r="L182">
-        <v>49</v>
-      </c>
-      <c r="M182">
-        <v>40.5</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1</v>
       </c>
@@ -6723,25 +3614,8 @@
       <c r="E183" s="3">
         <v>83</v>
       </c>
-      <c r="G183">
-        <f>IF(E183&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J183" cm="1">
-        <f t="array" ref="J183:M183">(G183*A183:D183)/(1+EXP(G183*TRANSPOSE($I$2:$I$5)*A183:D183))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K183">
-        <v>33.5</v>
-      </c>
-      <c r="L183">
-        <v>43.5</v>
-      </c>
-      <c r="M183">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1</v>
       </c>
@@ -6757,25 +3631,8 @@
       <c r="E184" s="4">
         <v>84</v>
       </c>
-      <c r="G184">
-        <f>IF(E184&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J184" cm="1">
-        <f t="array" ref="J184:M184">(G184*A184:D184)/(1+EXP(G184*TRANSPOSE($I$2:$I$5)*A184:D184))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K184">
-        <v>42.5</v>
-      </c>
-      <c r="L184">
-        <v>47</v>
-      </c>
-      <c r="M184">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>1</v>
       </c>
@@ -6791,25 +3648,8 @@
       <c r="E185" s="3">
         <v>84</v>
       </c>
-      <c r="G185">
-        <f>IF(E185&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J185" cm="1">
-        <f t="array" ref="J185:M185">(G185*A185:D185)/(1+EXP(G185*TRANSPOSE($I$2:$I$5)*A185:D185))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K185">
-        <v>41</v>
-      </c>
-      <c r="L185">
-        <v>42</v>
-      </c>
-      <c r="M185">
-        <v>35.5</v>
-      </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1</v>
       </c>
@@ -6825,25 +3665,8 @@
       <c r="E186" s="4">
         <v>84</v>
       </c>
-      <c r="G186">
-        <f>IF(E186&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J186" cm="1">
-        <f t="array" ref="J186:M186">(G186*A186:D186)/(1+EXP(G186*TRANSPOSE($I$2:$I$5)*A186:D186))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K186">
-        <v>41</v>
-      </c>
-      <c r="L186">
-        <v>47</v>
-      </c>
-      <c r="M186">
-        <v>49.5</v>
-      </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>1</v>
       </c>
@@ -6859,25 +3682,8 @@
       <c r="E187" s="3">
         <v>84</v>
       </c>
-      <c r="G187">
-        <f>IF(E187&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J187" cm="1">
-        <f t="array" ref="J187:M187">(G187*A187:D187)/(1+EXP(G187*TRANSPOSE($I$2:$I$5)*A187:D187))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K187">
-        <v>42</v>
-      </c>
-      <c r="L187">
-        <v>50</v>
-      </c>
-      <c r="M187">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>1</v>
       </c>
@@ -6893,25 +3699,8 @@
       <c r="E188" s="4">
         <v>84</v>
       </c>
-      <c r="G188">
-        <f>IF(E188&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J188" cm="1">
-        <f t="array" ref="J188:M188">(G188*A188:D188)/(1+EXP(G188*TRANSPOSE($I$2:$I$5)*A188:D188))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K188">
-        <v>42.5</v>
-      </c>
-      <c r="L188">
-        <v>45</v>
-      </c>
-      <c r="M188">
-        <v>40.5</v>
-      </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1</v>
       </c>
@@ -6927,25 +3716,8 @@
       <c r="E189" s="3">
         <v>84</v>
       </c>
-      <c r="G189">
-        <f>IF(E189&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J189" cm="1">
-        <f t="array" ref="J189:M189">(G189*A189:D189)/(1+EXP(G189*TRANSPOSE($I$2:$I$5)*A189:D189))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K189">
-        <v>38</v>
-      </c>
-      <c r="L189">
-        <v>44</v>
-      </c>
-      <c r="M189">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1</v>
       </c>
@@ -6961,25 +3733,8 @@
       <c r="E190" s="4">
         <v>84</v>
       </c>
-      <c r="G190">
-        <f>IF(E190&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J190" cm="1">
-        <f t="array" ref="J190:M190">(G190*A190:D190)/(1+EXP(G190*TRANSPOSE($I$2:$I$5)*A190:D190))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K190">
-        <v>45</v>
-      </c>
-      <c r="L190">
-        <v>44.5</v>
-      </c>
-      <c r="M190">
-        <v>40.5</v>
-      </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1</v>
       </c>
@@ -6995,25 +3750,8 @@
       <c r="E191" s="3">
         <v>84</v>
       </c>
-      <c r="G191">
-        <f>IF(E191&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J191" cm="1">
-        <f t="array" ref="J191:M191">(G191*A191:D191)/(1+EXP(G191*TRANSPOSE($I$2:$I$5)*A191:D191))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K191">
-        <v>41</v>
-      </c>
-      <c r="L191">
-        <v>47</v>
-      </c>
-      <c r="M191">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>1</v>
       </c>
@@ -7029,25 +3767,8 @@
       <c r="E192" s="3">
         <v>84</v>
       </c>
-      <c r="G192">
-        <f>IF(E192&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J192" cm="1">
-        <f t="array" ref="J192:M192">(G192*A192:D192)/(1+EXP(G192*TRANSPOSE($I$2:$I$5)*A192:D192))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K192">
-        <v>37</v>
-      </c>
-      <c r="L192">
-        <v>47.5</v>
-      </c>
-      <c r="M192">
-        <v>44.5</v>
-      </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>1</v>
       </c>
@@ -7063,25 +3784,8 @@
       <c r="E193" s="3">
         <v>84</v>
       </c>
-      <c r="G193">
-        <f>IF(E193&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J193" cm="1">
-        <f t="array" ref="J193:M193">(G193*A193:D193)/(1+EXP(G193*TRANSPOSE($I$2:$I$5)*A193:D193))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K193">
-        <v>44</v>
-      </c>
-      <c r="L193">
-        <v>45</v>
-      </c>
-      <c r="M193">
-        <v>44.5</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>1</v>
       </c>
@@ -7097,25 +3801,8 @@
       <c r="E194" s="4">
         <v>84</v>
       </c>
-      <c r="G194">
-        <f>IF(E194&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J194" cm="1">
-        <f t="array" ref="J194:M194">(G194*A194:D194)/(1+EXP(G194*TRANSPOSE($I$2:$I$5)*A194:D194))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K194">
-        <v>36</v>
-      </c>
-      <c r="L194">
-        <v>45</v>
-      </c>
-      <c r="M194">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1</v>
       </c>
@@ -7131,25 +3818,8 @@
       <c r="E195" s="4">
         <v>84</v>
       </c>
-      <c r="G195">
-        <f>IF(E195&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J195" cm="1">
-        <f t="array" ref="J195:M195">(G195*A195:D195)/(1+EXP(G195*TRANSPOSE($I$2:$I$5)*A195:D195))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K195">
-        <v>39.5</v>
-      </c>
-      <c r="L195">
-        <v>50</v>
-      </c>
-      <c r="M195">
-        <v>45.5</v>
-      </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>1</v>
       </c>
@@ -7165,25 +3835,8 @@
       <c r="E196" s="3">
         <v>84</v>
       </c>
-      <c r="G196">
-        <f>IF(E196&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J196" cm="1">
-        <f t="array" ref="J196:M196">(G196*A196:D196)/(1+EXP(G196*TRANSPOSE($I$2:$I$5)*A196:D196))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K196">
-        <v>43.5</v>
-      </c>
-      <c r="L196">
-        <v>48.5</v>
-      </c>
-      <c r="M196">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1</v>
       </c>
@@ -7199,25 +3852,8 @@
       <c r="E197" s="3">
         <v>84</v>
       </c>
-      <c r="G197">
-        <f>IF(E197&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J197" cm="1">
-        <f t="array" ref="J197:M197">(G197*A197:D197)/(1+EXP(G197*TRANSPOSE($I$2:$I$5)*A197:D197))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K197">
-        <v>37</v>
-      </c>
-      <c r="L197">
-        <v>45.5</v>
-      </c>
-      <c r="M197">
-        <v>45.5</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1</v>
       </c>
@@ -7233,25 +3869,8 @@
       <c r="E198" s="3">
         <v>85</v>
       </c>
-      <c r="G198">
-        <f>IF(E198&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J198" cm="1">
-        <f t="array" ref="J198:M198">(G198*A198:D198)/(1+EXP(G198*TRANSPOSE($I$2:$I$5)*A198:D198))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K198">
-        <v>45</v>
-      </c>
-      <c r="L198">
-        <v>46.5</v>
-      </c>
-      <c r="M198">
-        <v>40.5</v>
-      </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1</v>
       </c>
@@ -7267,25 +3886,8 @@
       <c r="E199" s="3">
         <v>85</v>
       </c>
-      <c r="G199">
-        <f>IF(E199&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J199" cm="1">
-        <f t="array" ref="J199:M199">(G199*A199:D199)/(1+EXP(G199*TRANSPOSE($I$2:$I$5)*A199:D199))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K199">
-        <v>42.5</v>
-      </c>
-      <c r="L199">
-        <v>41</v>
-      </c>
-      <c r="M199">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>1</v>
       </c>
@@ -7301,25 +3903,8 @@
       <c r="E200" s="3">
         <v>85</v>
       </c>
-      <c r="G200">
-        <f>IF(E200&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J200" cm="1">
-        <f t="array" ref="J200:M200">(G200*A200:D200)/(1+EXP(G200*TRANSPOSE($I$2:$I$5)*A200:D200))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K200">
-        <v>41.5</v>
-      </c>
-      <c r="L200">
-        <v>49</v>
-      </c>
-      <c r="M200">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1</v>
       </c>
@@ -7335,25 +3920,8 @@
       <c r="E201" s="3">
         <v>85</v>
       </c>
-      <c r="G201">
-        <f>IF(E201&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J201" cm="1">
-        <f t="array" ref="J201:M201">(G201*A201:D201)/(1+EXP(G201*TRANSPOSE($I$2:$I$5)*A201:D201))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K201">
-        <v>39</v>
-      </c>
-      <c r="L201">
-        <v>47</v>
-      </c>
-      <c r="M201">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1</v>
       </c>
@@ -7369,25 +3937,8 @@
       <c r="E202" s="4">
         <v>85</v>
       </c>
-      <c r="G202">
-        <f>IF(E202&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J202" cm="1">
-        <f t="array" ref="J202:M202">(G202*A202:D202)/(1+EXP(G202*TRANSPOSE($I$2:$I$5)*A202:D202))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K202">
-        <v>46</v>
-      </c>
-      <c r="L202">
-        <v>49</v>
-      </c>
-      <c r="M202">
-        <v>44.5</v>
-      </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>1</v>
       </c>
@@ -7403,25 +3954,8 @@
       <c r="E203" s="3">
         <v>85</v>
       </c>
-      <c r="G203">
-        <f>IF(E203&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J203" cm="1">
-        <f t="array" ref="J203:M203">(G203*A203:D203)/(1+EXP(G203*TRANSPOSE($I$2:$I$5)*A203:D203))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K203">
-        <v>41</v>
-      </c>
-      <c r="L203">
-        <v>44</v>
-      </c>
-      <c r="M203">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>1</v>
       </c>
@@ -7437,25 +3971,8 @@
       <c r="E204" s="4">
         <v>85</v>
       </c>
-      <c r="G204">
-        <f>IF(E204&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J204" cm="1">
-        <f t="array" ref="J204:M204">(G204*A204:D204)/(1+EXP(G204*TRANSPOSE($I$2:$I$5)*A204:D204))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K204">
-        <v>45</v>
-      </c>
-      <c r="L204">
-        <v>40</v>
-      </c>
-      <c r="M204">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>1</v>
       </c>
@@ -7471,25 +3988,8 @@
       <c r="E205" s="3">
         <v>85</v>
       </c>
-      <c r="G205">
-        <f>IF(E205&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J205" cm="1">
-        <f t="array" ref="J205:M205">(G205*A205:D205)/(1+EXP(G205*TRANSPOSE($I$2:$I$5)*A205:D205))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K205">
-        <v>43.5</v>
-      </c>
-      <c r="L205">
-        <v>45.5</v>
-      </c>
-      <c r="M205">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1</v>
       </c>
@@ -7505,25 +4005,8 @@
       <c r="E206" s="3">
         <v>85</v>
       </c>
-      <c r="G206">
-        <f>IF(E206&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J206" cm="1">
-        <f t="array" ref="J206:M206">(G206*A206:D206)/(1+EXP(G206*TRANSPOSE($I$2:$I$5)*A206:D206))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K206">
-        <v>39</v>
-      </c>
-      <c r="L206">
-        <v>48</v>
-      </c>
-      <c r="M206">
-        <v>39.5</v>
-      </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>1</v>
       </c>
@@ -7539,25 +4022,8 @@
       <c r="E207" s="3">
         <v>85</v>
       </c>
-      <c r="G207">
-        <f>IF(E207&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J207" cm="1">
-        <f t="array" ref="J207:M207">(G207*A207:D207)/(1+EXP(G207*TRANSPOSE($I$2:$I$5)*A207:D207))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K207">
-        <v>34</v>
-      </c>
-      <c r="L207">
-        <v>44</v>
-      </c>
-      <c r="M207">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>1</v>
       </c>
@@ -7573,25 +4039,8 @@
       <c r="E208" s="3">
         <v>85</v>
       </c>
-      <c r="G208">
-        <f>IF(E208&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J208" cm="1">
-        <f t="array" ref="J208:M208">(G208*A208:D208)/(1+EXP(G208*TRANSPOSE($I$2:$I$5)*A208:D208))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K208">
-        <v>46.5</v>
-      </c>
-      <c r="L208">
-        <v>4</v>
-      </c>
-      <c r="M208">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1</v>
       </c>
@@ -7607,25 +4056,8 @@
       <c r="E209" s="4">
         <v>85</v>
       </c>
-      <c r="G209">
-        <f>IF(E209&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J209" cm="1">
-        <f t="array" ref="J209:M209">(G209*A209:D209)/(1+EXP(G209*TRANSPOSE($I$2:$I$5)*A209:D209))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K209">
-        <v>39.5</v>
-      </c>
-      <c r="L209">
-        <v>46</v>
-      </c>
-      <c r="M209">
-        <v>36.5</v>
-      </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1</v>
       </c>
@@ -7641,25 +4073,8 @@
       <c r="E210" s="3">
         <v>85</v>
       </c>
-      <c r="G210">
-        <f>IF(E210&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J210" cm="1">
-        <f t="array" ref="J210:M210">(G210*A210:D210)/(1+EXP(G210*TRANSPOSE($I$2:$I$5)*A210:D210))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K210">
-        <v>46.5</v>
-      </c>
-      <c r="L210">
-        <v>19</v>
-      </c>
-      <c r="M210">
-        <v>49.5</v>
-      </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>1</v>
       </c>
@@ -7675,25 +4090,8 @@
       <c r="E211" s="4">
         <v>85</v>
       </c>
-      <c r="G211">
-        <f>IF(E211&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J211" cm="1">
-        <f t="array" ref="J211:M211">(G211*A211:D211)/(1+EXP(G211*TRANSPOSE($I$2:$I$5)*A211:D211))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K211">
-        <v>40.5</v>
-      </c>
-      <c r="L211">
-        <v>45.5</v>
-      </c>
-      <c r="M211">
-        <v>49.5</v>
-      </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>1</v>
       </c>
@@ -7709,25 +4107,8 @@
       <c r="E212" s="3">
         <v>85</v>
       </c>
-      <c r="G212">
-        <f>IF(E212&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J212" cm="1">
-        <f t="array" ref="J212:M212">(G212*A212:D212)/(1+EXP(G212*TRANSPOSE($I$2:$I$5)*A212:D212))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K212">
-        <v>50</v>
-      </c>
-      <c r="L212">
-        <v>35</v>
-      </c>
-      <c r="M212">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1</v>
       </c>
@@ -7743,25 +4124,8 @@
       <c r="E213" s="3">
         <v>85</v>
       </c>
-      <c r="G213">
-        <f>IF(E213&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J213" cm="1">
-        <f t="array" ref="J213:M213">(G213*A213:D213)/(1+EXP(G213*TRANSPOSE($I$2:$I$5)*A213:D213))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K213">
-        <v>44.5</v>
-      </c>
-      <c r="L213">
-        <v>25.5</v>
-      </c>
-      <c r="M213">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>1</v>
       </c>
@@ -7777,25 +4141,8 @@
       <c r="E214" s="3">
         <v>85</v>
       </c>
-      <c r="G214">
-        <f>IF(E214&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J214" cm="1">
-        <f t="array" ref="J214:M214">(G214*A214:D214)/(1+EXP(G214*TRANSPOSE($I$2:$I$5)*A214:D214))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K214">
-        <v>43</v>
-      </c>
-      <c r="L214">
-        <v>46.5</v>
-      </c>
-      <c r="M214">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>1</v>
       </c>
@@ -7811,25 +4158,8 @@
       <c r="E215" s="3">
         <v>85</v>
       </c>
-      <c r="G215">
-        <f>IF(E215&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J215" cm="1">
-        <f t="array" ref="J215:M215">(G215*A215:D215)/(1+EXP(G215*TRANSPOSE($I$2:$I$5)*A215:D215))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K215">
-        <v>45.5</v>
-      </c>
-      <c r="L215">
-        <v>39.5</v>
-      </c>
-      <c r="M215">
-        <v>45.5</v>
-      </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>1</v>
       </c>
@@ -7845,25 +4175,8 @@
       <c r="E216" s="3">
         <v>86</v>
       </c>
-      <c r="G216">
-        <f>IF(E216&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J216" cm="1">
-        <f t="array" ref="J216:M216">(G216*A216:D216)/(1+EXP(G216*TRANSPOSE($I$2:$I$5)*A216:D216))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K216">
-        <v>41</v>
-      </c>
-      <c r="L216">
-        <v>42</v>
-      </c>
-      <c r="M216">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>1</v>
       </c>
@@ -7879,25 +4192,8 @@
       <c r="E217" s="3">
         <v>86</v>
       </c>
-      <c r="G217">
-        <f>IF(E217&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J217" cm="1">
-        <f t="array" ref="J217:M217">(G217*A217:D217)/(1+EXP(G217*TRANSPOSE($I$2:$I$5)*A217:D217))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K217">
-        <v>41</v>
-      </c>
-      <c r="L217">
-        <v>41.5</v>
-      </c>
-      <c r="M217">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>1</v>
       </c>
@@ -7913,25 +4209,8 @@
       <c r="E218" s="3">
         <v>86</v>
       </c>
-      <c r="G218">
-        <f>IF(E218&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J218" cm="1">
-        <f t="array" ref="J218:M218">(G218*A218:D218)/(1+EXP(G218*TRANSPOSE($I$2:$I$5)*A218:D218))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K218">
-        <v>41.5</v>
-      </c>
-      <c r="L218">
-        <v>48</v>
-      </c>
-      <c r="M218">
-        <v>40.5</v>
-      </c>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>1</v>
       </c>
@@ -7947,25 +4226,8 @@
       <c r="E219" s="3">
         <v>86</v>
       </c>
-      <c r="G219">
-        <f>IF(E219&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J219" cm="1">
-        <f t="array" ref="J219:M219">(G219*A219:D219)/(1+EXP(G219*TRANSPOSE($I$2:$I$5)*A219:D219))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K219">
-        <v>44</v>
-      </c>
-      <c r="L219">
-        <v>44</v>
-      </c>
-      <c r="M219">
-        <v>38.5</v>
-      </c>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>1</v>
       </c>
@@ -7981,25 +4243,8 @@
       <c r="E220" s="3">
         <v>86</v>
       </c>
-      <c r="G220">
-        <f>IF(E220&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J220" cm="1">
-        <f t="array" ref="J220:M220">(G220*A220:D220)/(1+EXP(G220*TRANSPOSE($I$2:$I$5)*A220:D220))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K220">
-        <v>37</v>
-      </c>
-      <c r="L220">
-        <v>50</v>
-      </c>
-      <c r="M220">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1</v>
       </c>
@@ -8015,25 +4260,8 @@
       <c r="E221" s="3">
         <v>86</v>
       </c>
-      <c r="G221">
-        <f>IF(E221&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J221" cm="1">
-        <f t="array" ref="J221:M221">(G221*A221:D221)/(1+EXP(G221*TRANSPOSE($I$2:$I$5)*A221:D221))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K221">
-        <v>47</v>
-      </c>
-      <c r="L221">
-        <v>29.5</v>
-      </c>
-      <c r="M221">
-        <v>43.5</v>
-      </c>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>1</v>
       </c>
@@ -8049,25 +4277,8 @@
       <c r="E222" s="4">
         <v>86</v>
       </c>
-      <c r="G222">
-        <f>IF(E222&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J222" cm="1">
-        <f t="array" ref="J222:M222">(G222*A222:D222)/(1+EXP(G222*TRANSPOSE($I$2:$I$5)*A222:D222))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K222">
-        <v>47</v>
-      </c>
-      <c r="L222">
-        <v>49.5</v>
-      </c>
-      <c r="M222">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1</v>
       </c>
@@ -8083,25 +4294,8 @@
       <c r="E223" s="3">
         <v>86</v>
       </c>
-      <c r="G223">
-        <f>IF(E223&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J223" cm="1">
-        <f t="array" ref="J223:M223">(G223*A223:D223)/(1+EXP(G223*TRANSPOSE($I$2:$I$5)*A223:D223))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K223">
-        <v>44</v>
-      </c>
-      <c r="L223">
-        <v>40</v>
-      </c>
-      <c r="M223">
-        <v>47.5</v>
-      </c>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1</v>
       </c>
@@ -8117,25 +4311,8 @@
       <c r="E224" s="4">
         <v>86</v>
       </c>
-      <c r="G224">
-        <f>IF(E224&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J224" cm="1">
-        <f t="array" ref="J224:M224">(G224*A224:D224)/(1+EXP(G224*TRANSPOSE($I$2:$I$5)*A224:D224))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K224">
-        <v>42</v>
-      </c>
-      <c r="L224">
-        <v>46.5</v>
-      </c>
-      <c r="M224">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>1</v>
       </c>
@@ -8151,25 +4328,8 @@
       <c r="E225" s="4">
         <v>86</v>
       </c>
-      <c r="G225">
-        <f>IF(E225&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J225" cm="1">
-        <f t="array" ref="J225:M225">(G225*A225:D225)/(1+EXP(G225*TRANSPOSE($I$2:$I$5)*A225:D225))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K225">
-        <v>37</v>
-      </c>
-      <c r="L225">
-        <v>50</v>
-      </c>
-      <c r="M225">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1</v>
       </c>
@@ -8185,25 +4345,8 @@
       <c r="E226" s="4">
         <v>86</v>
       </c>
-      <c r="G226">
-        <f>IF(E226&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J226" cm="1">
-        <f t="array" ref="J226:M226">(G226*A226:D226)/(1+EXP(G226*TRANSPOSE($I$2:$I$5)*A226:D226))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K226">
-        <v>39.5</v>
-      </c>
-      <c r="L226">
-        <v>45</v>
-      </c>
-      <c r="M226">
-        <v>39.5</v>
-      </c>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1</v>
       </c>
@@ -8219,25 +4362,8 @@
       <c r="E227" s="3">
         <v>86</v>
       </c>
-      <c r="G227">
-        <f>IF(E227&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J227" cm="1">
-        <f t="array" ref="J227:M227">(G227*A227:D227)/(1+EXP(G227*TRANSPOSE($I$2:$I$5)*A227:D227))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K227">
-        <v>45</v>
-      </c>
-      <c r="L227">
-        <v>47</v>
-      </c>
-      <c r="M227">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>1</v>
       </c>
@@ -8253,25 +4379,8 @@
       <c r="E228" s="4">
         <v>86</v>
       </c>
-      <c r="G228">
-        <f>IF(E228&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J228" cm="1">
-        <f t="array" ref="J228:M228">(G228*A228:D228)/(1+EXP(G228*TRANSPOSE($I$2:$I$5)*A228:D228))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K228">
-        <v>37</v>
-      </c>
-      <c r="L228">
-        <v>49</v>
-      </c>
-      <c r="M228">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>1</v>
       </c>
@@ -8287,25 +4396,8 @@
       <c r="E229" s="4">
         <v>86</v>
       </c>
-      <c r="G229">
-        <f>IF(E229&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J229" cm="1">
-        <f t="array" ref="J229:M229">(G229*A229:D229)/(1+EXP(G229*TRANSPOSE($I$2:$I$5)*A229:D229))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K229">
-        <v>44.5</v>
-      </c>
-      <c r="L229">
-        <v>49</v>
-      </c>
-      <c r="M229">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>1</v>
       </c>
@@ -8321,25 +4413,8 @@
       <c r="E230" s="3">
         <v>87</v>
       </c>
-      <c r="G230">
-        <f>IF(E230&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J230" cm="1">
-        <f t="array" ref="J230:M230">(G230*A230:D230)/(1+EXP(G230*TRANSPOSE($I$2:$I$5)*A230:D230))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K230">
-        <v>46</v>
-      </c>
-      <c r="L230">
-        <v>40.5</v>
-      </c>
-      <c r="M230">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1</v>
       </c>
@@ -8355,25 +4430,8 @@
       <c r="E231" s="3">
         <v>87</v>
       </c>
-      <c r="G231">
-        <f>IF(E231&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J231" cm="1">
-        <f t="array" ref="J231:M231">(G231*A231:D231)/(1+EXP(G231*TRANSPOSE($I$2:$I$5)*A231:D231))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K231">
-        <v>45.5</v>
-      </c>
-      <c r="L231">
-        <v>36</v>
-      </c>
-      <c r="M231">
-        <v>48.5</v>
-      </c>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1</v>
       </c>
@@ -8389,25 +4447,8 @@
       <c r="E232" s="3">
         <v>87</v>
       </c>
-      <c r="G232">
-        <f>IF(E232&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J232" cm="1">
-        <f t="array" ref="J232:M232">(G232*A232:D232)/(1+EXP(G232*TRANSPOSE($I$2:$I$5)*A232:D232))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K232">
-        <v>37</v>
-      </c>
-      <c r="L232">
-        <v>39.5</v>
-      </c>
-      <c r="M232">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>1</v>
       </c>
@@ -8423,25 +4464,8 @@
       <c r="E233" s="3">
         <v>87</v>
       </c>
-      <c r="G233">
-        <f>IF(E233&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J233" cm="1">
-        <f t="array" ref="J233:M233">(G233*A233:D233)/(1+EXP(G233*TRANSPOSE($I$2:$I$5)*A233:D233))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K233">
-        <v>47.5</v>
-      </c>
-      <c r="L233">
-        <v>42.5</v>
-      </c>
-      <c r="M233">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>1</v>
       </c>
@@ -8457,25 +4481,8 @@
       <c r="E234" s="3">
         <v>87</v>
       </c>
-      <c r="G234">
-        <f>IF(E234&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J234" cm="1">
-        <f t="array" ref="J234:M234">(G234*A234:D234)/(1+EXP(G234*TRANSPOSE($I$2:$I$5)*A234:D234))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K234">
-        <v>41.5</v>
-      </c>
-      <c r="L234">
-        <v>46.5</v>
-      </c>
-      <c r="M234">
-        <v>45.5</v>
-      </c>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1</v>
       </c>
@@ -8491,25 +4498,8 @@
       <c r="E235" s="3">
         <v>87</v>
       </c>
-      <c r="G235">
-        <f>IF(E235&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J235" cm="1">
-        <f t="array" ref="J235:M235">(G235*A235:D235)/(1+EXP(G235*TRANSPOSE($I$2:$I$5)*A235:D235))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K235">
-        <v>47</v>
-      </c>
-      <c r="L235">
-        <v>50</v>
-      </c>
-      <c r="M235">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1</v>
       </c>
@@ -8525,25 +4515,8 @@
       <c r="E236" s="3">
         <v>87</v>
       </c>
-      <c r="G236">
-        <f>IF(E236&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J236" cm="1">
-        <f t="array" ref="J236:M236">(G236*A236:D236)/(1+EXP(G236*TRANSPOSE($I$2:$I$5)*A236:D236))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K236">
-        <v>44.5</v>
-      </c>
-      <c r="L236">
-        <v>40.5</v>
-      </c>
-      <c r="M236">
-        <v>46.5</v>
-      </c>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1</v>
       </c>
@@ -8559,25 +4532,8 @@
       <c r="E237" s="4">
         <v>87</v>
       </c>
-      <c r="G237">
-        <f>IF(E237&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J237" cm="1">
-        <f t="array" ref="J237:M237">(G237*A237:D237)/(1+EXP(G237*TRANSPOSE($I$2:$I$5)*A237:D237))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K237">
-        <v>40</v>
-      </c>
-      <c r="L237">
-        <v>42.5</v>
-      </c>
-      <c r="M237">
-        <v>41.5</v>
-      </c>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1</v>
       </c>
@@ -8593,25 +4549,8 @@
       <c r="E238" s="3">
         <v>87</v>
       </c>
-      <c r="G238">
-        <f>IF(E238&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J238" cm="1">
-        <f t="array" ref="J238:M238">(G238*A238:D238)/(1+EXP(G238*TRANSPOSE($I$2:$I$5)*A238:D238))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K238">
-        <v>45.5</v>
-      </c>
-      <c r="L238">
-        <v>31.5</v>
-      </c>
-      <c r="M238">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1</v>
       </c>
@@ -8627,25 +4566,8 @@
       <c r="E239" s="4">
         <v>87</v>
       </c>
-      <c r="G239">
-        <f>IF(E239&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J239" cm="1">
-        <f t="array" ref="J239:M239">(G239*A239:D239)/(1+EXP(G239*TRANSPOSE($I$2:$I$5)*A239:D239))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K239">
-        <v>41.5</v>
-      </c>
-      <c r="L239">
-        <v>46</v>
-      </c>
-      <c r="M239">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1</v>
       </c>
@@ -8661,25 +4583,8 @@
       <c r="E240" s="3">
         <v>87</v>
       </c>
-      <c r="G240">
-        <f>IF(E240&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J240" cm="1">
-        <f t="array" ref="J240:M240">(G240*A240:D240)/(1+EXP(G240*TRANSPOSE($I$2:$I$5)*A240:D240))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K240">
-        <v>44</v>
-      </c>
-      <c r="L240">
-        <v>39</v>
-      </c>
-      <c r="M240">
-        <v>48.5</v>
-      </c>
-    </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>1</v>
       </c>
@@ -8695,25 +4600,8 @@
       <c r="E241" s="3">
         <v>87</v>
       </c>
-      <c r="G241">
-        <f>IF(E241&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J241" cm="1">
-        <f t="array" ref="J241:M241">(G241*A241:D241)/(1+EXP(G241*TRANSPOSE($I$2:$I$5)*A241:D241))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K241">
-        <v>45.5</v>
-      </c>
-      <c r="L241">
-        <v>48.5</v>
-      </c>
-      <c r="M241">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>1</v>
       </c>
@@ -8729,25 +4617,8 @@
       <c r="E242" s="3">
         <v>87</v>
       </c>
-      <c r="G242">
-        <f>IF(E242&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J242" cm="1">
-        <f t="array" ref="J242:M242">(G242*A242:D242)/(1+EXP(G242*TRANSPOSE($I$2:$I$5)*A242:D242))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K242">
-        <v>42</v>
-      </c>
-      <c r="L242">
-        <v>48</v>
-      </c>
-      <c r="M242">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>1</v>
       </c>
@@ -8763,25 +4634,8 @@
       <c r="E243" s="3">
         <v>87</v>
       </c>
-      <c r="G243">
-        <f>IF(E243&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J243" cm="1">
-        <f t="array" ref="J243:M243">(G243*A243:D243)/(1+EXP(G243*TRANSPOSE($I$2:$I$5)*A243:D243))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K243">
-        <v>37</v>
-      </c>
-      <c r="L243">
-        <v>38.5</v>
-      </c>
-      <c r="M243">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>1</v>
       </c>
@@ -8797,25 +4651,8 @@
       <c r="E244" s="3">
         <v>87</v>
       </c>
-      <c r="G244">
-        <f>IF(E244&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J244" cm="1">
-        <f t="array" ref="J244:M244">(G244*A244:D244)/(1+EXP(G244*TRANSPOSE($I$2:$I$5)*A244:D244))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K244">
-        <v>41.5</v>
-      </c>
-      <c r="L244">
-        <v>46.5</v>
-      </c>
-      <c r="M244">
-        <v>43.5</v>
-      </c>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>1</v>
       </c>
@@ -8831,25 +4668,8 @@
       <c r="E245" s="4">
         <v>88</v>
       </c>
-      <c r="G245">
-        <f>IF(E245&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J245" cm="1">
-        <f t="array" ref="J245:M245">(G245*A245:D245)/(1+EXP(G245*TRANSPOSE($I$2:$I$5)*A245:D245))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K245">
-        <v>44</v>
-      </c>
-      <c r="L245">
-        <v>50</v>
-      </c>
-      <c r="M245">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>1</v>
       </c>
@@ -8865,25 +4685,8 @@
       <c r="E246" s="4">
         <v>88</v>
       </c>
-      <c r="G246">
-        <f>IF(E246&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J246" cm="1">
-        <f t="array" ref="J246:M246">(G246*A246:D246)/(1+EXP(G246*TRANSPOSE($I$2:$I$5)*A246:D246))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K246">
-        <v>44</v>
-      </c>
-      <c r="L246">
-        <v>44</v>
-      </c>
-      <c r="M246">
-        <v>45.5</v>
-      </c>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1</v>
       </c>
@@ -8899,25 +4702,8 @@
       <c r="E247" s="3">
         <v>88</v>
       </c>
-      <c r="G247">
-        <f>IF(E247&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J247" cm="1">
-        <f t="array" ref="J247:M247">(G247*A247:D247)/(1+EXP(G247*TRANSPOSE($I$2:$I$5)*A247:D247))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K247">
-        <v>39.5</v>
-      </c>
-      <c r="L247">
-        <v>49</v>
-      </c>
-      <c r="M247">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>1</v>
       </c>
@@ -8933,25 +4719,8 @@
       <c r="E248" s="3">
         <v>88</v>
       </c>
-      <c r="G248">
-        <f>IF(E248&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J248" cm="1">
-        <f t="array" ref="J248:M248">(G248*A248:D248)/(1+EXP(G248*TRANSPOSE($I$2:$I$5)*A248:D248))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K248">
-        <v>43.5</v>
-      </c>
-      <c r="L248">
-        <v>45.5</v>
-      </c>
-      <c r="M248">
-        <v>49.5</v>
-      </c>
-    </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>1</v>
       </c>
@@ -8967,25 +4736,8 @@
       <c r="E249" s="3">
         <v>88</v>
       </c>
-      <c r="G249">
-        <f>IF(E249&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J249" cm="1">
-        <f t="array" ref="J249:M249">(G249*A249:D249)/(1+EXP(G249*TRANSPOSE($I$2:$I$5)*A249:D249))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K249">
-        <v>36.5</v>
-      </c>
-      <c r="L249">
-        <v>48</v>
-      </c>
-      <c r="M249">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1</v>
       </c>
@@ -9001,25 +4753,8 @@
       <c r="E250" s="3">
         <v>88</v>
       </c>
-      <c r="G250">
-        <f>IF(E250&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J250" cm="1">
-        <f t="array" ref="J250:M250">(G250*A250:D250)/(1+EXP(G250*TRANSPOSE($I$2:$I$5)*A250:D250))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K250">
-        <v>45.5</v>
-      </c>
-      <c r="L250">
-        <v>38</v>
-      </c>
-      <c r="M250">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>1</v>
       </c>
@@ -9035,25 +4770,8 @@
       <c r="E251" s="4">
         <v>88</v>
       </c>
-      <c r="G251">
-        <f>IF(E251&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J251" cm="1">
-        <f t="array" ref="J251:M251">(G251*A251:D251)/(1+EXP(G251*TRANSPOSE($I$2:$I$5)*A251:D251))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K251">
-        <v>42</v>
-      </c>
-      <c r="L251">
-        <v>49.5</v>
-      </c>
-      <c r="M251">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>1</v>
       </c>
@@ -9069,25 +4787,8 @@
       <c r="E252" s="3">
         <v>88</v>
       </c>
-      <c r="G252">
-        <f>IF(E252&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J252" cm="1">
-        <f t="array" ref="J252:M252">(G252*A252:D252)/(1+EXP(G252*TRANSPOSE($I$2:$I$5)*A252:D252))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K252">
-        <v>43</v>
-      </c>
-      <c r="L252">
-        <v>40.5</v>
-      </c>
-      <c r="M252">
-        <v>41.5</v>
-      </c>
-    </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1</v>
       </c>
@@ -9103,25 +4804,8 @@
       <c r="E253" s="4">
         <v>88</v>
       </c>
-      <c r="G253">
-        <f>IF(E253&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J253" cm="1">
-        <f t="array" ref="J253:M253">(G253*A253:D253)/(1+EXP(G253*TRANSPOSE($I$2:$I$5)*A253:D253))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K253">
-        <v>43.5</v>
-      </c>
-      <c r="L253">
-        <v>49.5</v>
-      </c>
-      <c r="M253">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1</v>
       </c>
@@ -9137,25 +4821,8 @@
       <c r="E254" s="3">
         <v>89</v>
       </c>
-      <c r="G254">
-        <f>IF(E254&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J254" cm="1">
-        <f t="array" ref="J254:M254">(G254*A254:D254)/(1+EXP(G254*TRANSPOSE($I$2:$I$5)*A254:D254))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K254">
-        <v>41</v>
-      </c>
-      <c r="L254">
-        <v>45.5</v>
-      </c>
-      <c r="M254">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>1</v>
       </c>
@@ -9171,25 +4838,8 @@
       <c r="E255" s="3">
         <v>89</v>
       </c>
-      <c r="G255">
-        <f>IF(E255&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J255" cm="1">
-        <f t="array" ref="J255:M255">(G255*A255:D255)/(1+EXP(G255*TRANSPOSE($I$2:$I$5)*A255:D255))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K255">
-        <v>45.5</v>
-      </c>
-      <c r="L255">
-        <v>47.5</v>
-      </c>
-      <c r="M255">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>1</v>
       </c>
@@ -9205,25 +4855,8 @@
       <c r="E256" s="3">
         <v>89</v>
       </c>
-      <c r="G256">
-        <f>IF(E256&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J256" cm="1">
-        <f t="array" ref="J256:M256">(G256*A256:D256)/(1+EXP(G256*TRANSPOSE($I$2:$I$5)*A256:D256))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K256">
-        <v>45</v>
-      </c>
-      <c r="L256">
-        <v>45.5</v>
-      </c>
-      <c r="M256">
-        <v>41.5</v>
-      </c>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>1</v>
       </c>
@@ -9239,25 +4872,8 @@
       <c r="E257" s="4">
         <v>89</v>
       </c>
-      <c r="G257">
-        <f>IF(E257&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J257" cm="1">
-        <f t="array" ref="J257:M257">(G257*A257:D257)/(1+EXP(G257*TRANSPOSE($I$2:$I$5)*A257:D257))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K257">
-        <v>42.5</v>
-      </c>
-      <c r="L257">
-        <v>50</v>
-      </c>
-      <c r="M257">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>1</v>
       </c>
@@ -9273,25 +4889,8 @@
       <c r="E258" s="4">
         <v>89</v>
       </c>
-      <c r="G258">
-        <f>IF(E258&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J258" cm="1">
-        <f t="array" ref="J258:M258">(G258*A258:D258)/(1+EXP(G258*TRANSPOSE($I$2:$I$5)*A258:D258))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K258">
-        <v>47.5</v>
-      </c>
-      <c r="L258">
-        <v>39</v>
-      </c>
-      <c r="M258">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>1</v>
       </c>
@@ -9307,25 +4906,8 @@
       <c r="E259" s="4">
         <v>89</v>
       </c>
-      <c r="G259">
-        <f>IF(E259&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J259" cm="1">
-        <f t="array" ref="J259:M259">(G259*A259:D259)/(1+EXP(G259*TRANSPOSE($I$2:$I$5)*A259:D259))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K259">
-        <v>40.5</v>
-      </c>
-      <c r="L259">
-        <v>48.5</v>
-      </c>
-      <c r="M259">
-        <v>44.5</v>
-      </c>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>1</v>
       </c>
@@ -9341,25 +4923,8 @@
       <c r="E260" s="3">
         <v>89</v>
       </c>
-      <c r="G260">
-        <f>IF(E260&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J260" cm="1">
-        <f t="array" ref="J260:M260">(G260*A260:D260)/(1+EXP(G260*TRANSPOSE($I$2:$I$5)*A260:D260))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K260">
-        <v>43.5</v>
-      </c>
-      <c r="L260">
-        <v>40.5</v>
-      </c>
-      <c r="M260">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>1</v>
       </c>
@@ -9375,25 +4940,8 @@
       <c r="E261" s="3">
         <v>89</v>
       </c>
-      <c r="G261">
-        <f>IF(E261&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J261" cm="1">
-        <f t="array" ref="J261:M261">(G261*A261:D261)/(1+EXP(G261*TRANSPOSE($I$2:$I$5)*A261:D261))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K261">
-        <v>41.5</v>
-      </c>
-      <c r="L261">
-        <v>33</v>
-      </c>
-      <c r="M261">
-        <v>44.5</v>
-      </c>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>1</v>
       </c>
@@ -9409,25 +4957,8 @@
       <c r="E262" s="4">
         <v>89</v>
       </c>
-      <c r="G262">
-        <f>IF(E262&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J262" cm="1">
-        <f t="array" ref="J262:M262">(G262*A262:D262)/(1+EXP(G262*TRANSPOSE($I$2:$I$5)*A262:D262))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K262">
-        <v>48</v>
-      </c>
-      <c r="L262">
-        <v>41</v>
-      </c>
-      <c r="M262">
-        <v>44.5</v>
-      </c>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>1</v>
       </c>
@@ -9443,25 +4974,8 @@
       <c r="E263" s="3">
         <v>90</v>
       </c>
-      <c r="G263">
-        <f>IF(E263&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J263" cm="1">
-        <f t="array" ref="J263:M263">(G263*A263:D263)/(1+EXP(G263*TRANSPOSE($I$2:$I$5)*A263:D263))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K263">
-        <v>44</v>
-      </c>
-      <c r="L263">
-        <v>50</v>
-      </c>
-      <c r="M263">
-        <v>45.5</v>
-      </c>
-    </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>1</v>
       </c>
@@ -9477,25 +4991,8 @@
       <c r="E264" s="3">
         <v>90</v>
       </c>
-      <c r="G264">
-        <f>IF(E264&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J264" cm="1">
-        <f t="array" ref="J264:M264">(G264*A264:D264)/(1+EXP(G264*TRANSPOSE($I$2:$I$5)*A264:D264))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K264">
-        <v>42</v>
-      </c>
-      <c r="L264">
-        <v>33</v>
-      </c>
-      <c r="M264">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>1</v>
       </c>
@@ -9511,25 +5008,8 @@
       <c r="E265" s="4">
         <v>90</v>
       </c>
-      <c r="G265">
-        <f>IF(E265&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J265" cm="1">
-        <f t="array" ref="J265:M265">(G265*A265:D265)/(1+EXP(G265*TRANSPOSE($I$2:$I$5)*A265:D265))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K265">
-        <v>45</v>
-      </c>
-      <c r="L265">
-        <v>49</v>
-      </c>
-      <c r="M265">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>1</v>
       </c>
@@ -9545,25 +5025,8 @@
       <c r="E266" s="3">
         <v>90</v>
       </c>
-      <c r="G266">
-        <f>IF(E266&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J266" cm="1">
-        <f t="array" ref="J266:M266">(G266*A266:D266)/(1+EXP(G266*TRANSPOSE($I$2:$I$5)*A266:D266))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K266">
-        <v>44.5</v>
-      </c>
-      <c r="L266">
-        <v>45.5</v>
-      </c>
-      <c r="M266">
-        <v>42.5</v>
-      </c>
-    </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>1</v>
       </c>
@@ -9579,25 +5042,8 @@
       <c r="E267" s="3">
         <v>90</v>
       </c>
-      <c r="G267">
-        <f>IF(E267&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J267" cm="1">
-        <f t="array" ref="J267:M267">(G267*A267:D267)/(1+EXP(G267*TRANSPOSE($I$2:$I$5)*A267:D267))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K267">
-        <v>47.5</v>
-      </c>
-      <c r="L267">
-        <v>25.5</v>
-      </c>
-      <c r="M267">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>1</v>
       </c>
@@ -9613,25 +5059,8 @@
       <c r="E268" s="4">
         <v>90</v>
       </c>
-      <c r="G268">
-        <f>IF(E268&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J268" cm="1">
-        <f t="array" ref="J268:M268">(G268*A268:D268)/(1+EXP(G268*TRANSPOSE($I$2:$I$5)*A268:D268))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K268">
-        <v>47</v>
-      </c>
-      <c r="L268">
-        <v>49</v>
-      </c>
-      <c r="M268">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>1</v>
       </c>
@@ -9647,25 +5076,8 @@
       <c r="E269" s="3">
         <v>91</v>
       </c>
-      <c r="G269">
-        <f>IF(E269&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J269" cm="1">
-        <f t="array" ref="J269:M269">(G269*A269:D269)/(1+EXP(G269*TRANSPOSE($I$2:$I$5)*A269:D269))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K269">
-        <v>43</v>
-      </c>
-      <c r="L269">
-        <v>46</v>
-      </c>
-      <c r="M269">
-        <v>45.5</v>
-      </c>
-    </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>1</v>
       </c>
@@ -9681,25 +5093,8 @@
       <c r="E270" s="3">
         <v>91</v>
       </c>
-      <c r="G270">
-        <f>IF(E270&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J270" cm="1">
-        <f t="array" ref="J270:M270">(G270*A270:D270)/(1+EXP(G270*TRANSPOSE($I$2:$I$5)*A270:D270))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K270">
-        <v>42</v>
-      </c>
-      <c r="L270">
-        <v>49</v>
-      </c>
-      <c r="M270">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>1</v>
       </c>
@@ -9715,25 +5110,8 @@
       <c r="E271" s="4">
         <v>91</v>
       </c>
-      <c r="G271">
-        <f>IF(E271&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J271" cm="1">
-        <f t="array" ref="J271:M271">(G271*A271:D271)/(1+EXP(G271*TRANSPOSE($I$2:$I$5)*A271:D271))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K271">
-        <v>45</v>
-      </c>
-      <c r="L271">
-        <v>49.5</v>
-      </c>
-      <c r="M271">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>1</v>
       </c>
@@ -9749,25 +5127,8 @@
       <c r="E272" s="3">
         <v>91</v>
       </c>
-      <c r="G272">
-        <f>IF(E272&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J272" cm="1">
-        <f t="array" ref="J272:M272">(G272*A272:D272)/(1+EXP(G272*TRANSPOSE($I$2:$I$5)*A272:D272))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K272">
-        <v>46.5</v>
-      </c>
-      <c r="L272">
-        <v>47.5</v>
-      </c>
-      <c r="M272">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>1</v>
       </c>
@@ -9783,25 +5144,8 @@
       <c r="E273" s="3">
         <v>91</v>
       </c>
-      <c r="G273">
-        <f>IF(E273&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J273" cm="1">
-        <f t="array" ref="J273:M273">(G273*A273:D273)/(1+EXP(G273*TRANSPOSE($I$2:$I$5)*A273:D273))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K273">
-        <v>44.5</v>
-      </c>
-      <c r="L273">
-        <v>50</v>
-      </c>
-      <c r="M273">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>1</v>
       </c>
@@ -9817,25 +5161,8 @@
       <c r="E274" s="3">
         <v>91</v>
       </c>
-      <c r="G274">
-        <f>IF(E274&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J274" cm="1">
-        <f t="array" ref="J274:M274">(G274*A274:D274)/(1+EXP(G274*TRANSPOSE($I$2:$I$5)*A274:D274))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K274">
-        <v>43</v>
-      </c>
-      <c r="L274">
-        <v>48</v>
-      </c>
-      <c r="M274">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>1</v>
       </c>
@@ -9851,25 +5178,8 @@
       <c r="E275" s="3">
         <v>91</v>
       </c>
-      <c r="G275">
-        <f>IF(E275&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J275" cm="1">
-        <f t="array" ref="J275:M275">(G275*A275:D275)/(1+EXP(G275*TRANSPOSE($I$2:$I$5)*A275:D275))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K275">
-        <v>45</v>
-      </c>
-      <c r="L275">
-        <v>43.5</v>
-      </c>
-      <c r="M275">
-        <v>44.5</v>
-      </c>
-    </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>1</v>
       </c>
@@ -9885,25 +5195,8 @@
       <c r="E276" s="3">
         <v>91</v>
       </c>
-      <c r="G276">
-        <f>IF(E276&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J276" cm="1">
-        <f t="array" ref="J276:M276">(G276*A276:D276)/(1+EXP(G276*TRANSPOSE($I$2:$I$5)*A276:D276))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K276">
-        <v>47.5</v>
-      </c>
-      <c r="L276">
-        <v>42</v>
-      </c>
-      <c r="M276">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>1</v>
       </c>
@@ -9919,25 +5212,8 @@
       <c r="E277" s="3">
         <v>91</v>
       </c>
-      <c r="G277">
-        <f>IF(E277&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J277" cm="1">
-        <f t="array" ref="J277:M277">(G277*A277:D277)/(1+EXP(G277*TRANSPOSE($I$2:$I$5)*A277:D277))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K277">
-        <v>45.5</v>
-      </c>
-      <c r="L277">
-        <v>44.5</v>
-      </c>
-      <c r="M277">
-        <v>46.5</v>
-      </c>
-    </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>1</v>
       </c>
@@ -9953,25 +5229,8 @@
       <c r="E278" s="4">
         <v>91</v>
       </c>
-      <c r="G278">
-        <f>IF(E278&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J278" cm="1">
-        <f t="array" ref="J278:M278">(G278*A278:D278)/(1+EXP(G278*TRANSPOSE($I$2:$I$5)*A278:D278))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K278">
-        <v>45</v>
-      </c>
-      <c r="L278">
-        <v>49.5</v>
-      </c>
-      <c r="M278">
-        <v>44.5</v>
-      </c>
-    </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>1</v>
       </c>
@@ -9987,25 +5246,8 @@
       <c r="E279" s="3">
         <v>91</v>
       </c>
-      <c r="G279">
-        <f>IF(E279&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J279" cm="1">
-        <f t="array" ref="J279:M279">(G279*A279:D279)/(1+EXP(G279*TRANSPOSE($I$2:$I$5)*A279:D279))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K279">
-        <v>46</v>
-      </c>
-      <c r="L279">
-        <v>44</v>
-      </c>
-      <c r="M279">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>1</v>
       </c>
@@ -10021,25 +5263,8 @@
       <c r="E280" s="4">
         <v>92</v>
       </c>
-      <c r="G280">
-        <f>IF(E280&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J280" cm="1">
-        <f t="array" ref="J280:M280">(G280*A280:D280)/(1+EXP(G280*TRANSPOSE($I$2:$I$5)*A280:D280))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K280">
-        <v>46.5</v>
-      </c>
-      <c r="L280">
-        <v>48.5</v>
-      </c>
-      <c r="M280">
-        <v>45.5</v>
-      </c>
-    </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>1</v>
       </c>
@@ -10055,25 +5280,8 @@
       <c r="E281" s="3">
         <v>92</v>
       </c>
-      <c r="G281">
-        <f>IF(E281&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J281" cm="1">
-        <f t="array" ref="J281:M281">(G281*A281:D281)/(1+EXP(G281*TRANSPOSE($I$2:$I$5)*A281:D281))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K281">
-        <v>43.5</v>
-      </c>
-      <c r="L281">
-        <v>42</v>
-      </c>
-      <c r="M281">
-        <v>48.5</v>
-      </c>
-    </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>1</v>
       </c>
@@ -10089,25 +5297,8 @@
       <c r="E282" s="3">
         <v>92</v>
       </c>
-      <c r="G282">
-        <f>IF(E282&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J282" cm="1">
-        <f t="array" ref="J282:M282">(G282*A282:D282)/(1+EXP(G282*TRANSPOSE($I$2:$I$5)*A282:D282))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K282">
-        <v>45.5</v>
-      </c>
-      <c r="L282">
-        <v>47</v>
-      </c>
-      <c r="M282">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>1</v>
       </c>
@@ -10123,25 +5314,8 @@
       <c r="E283" s="4">
         <v>92</v>
       </c>
-      <c r="G283">
-        <f>IF(E283&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J283" cm="1">
-        <f t="array" ref="J283:M283">(G283*A283:D283)/(1+EXP(G283*TRANSPOSE($I$2:$I$5)*A283:D283))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K283">
-        <v>44.5</v>
-      </c>
-      <c r="L283">
-        <v>50</v>
-      </c>
-      <c r="M283">
-        <v>45.5</v>
-      </c>
-    </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>1</v>
       </c>
@@ -10157,25 +5331,8 @@
       <c r="E284" s="3">
         <v>92</v>
       </c>
-      <c r="G284">
-        <f>IF(E284&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J284" cm="1">
-        <f t="array" ref="J284:M284">(G284*A284:D284)/(1+EXP(G284*TRANSPOSE($I$2:$I$5)*A284:D284))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K284">
-        <v>43</v>
-      </c>
-      <c r="L284">
-        <v>45.5</v>
-      </c>
-      <c r="M284">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>1</v>
       </c>
@@ -10191,25 +5348,8 @@
       <c r="E285" s="3">
         <v>92</v>
       </c>
-      <c r="G285">
-        <f>IF(E285&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J285" cm="1">
-        <f t="array" ref="J285:M285">(G285*A285:D285)/(1+EXP(G285*TRANSPOSE($I$2:$I$5)*A285:D285))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K285">
-        <v>44</v>
-      </c>
-      <c r="L285">
-        <v>44</v>
-      </c>
-      <c r="M285">
-        <v>47.5</v>
-      </c>
-    </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>1</v>
       </c>
@@ -10225,25 +5365,8 @@
       <c r="E286" s="4">
         <v>92</v>
       </c>
-      <c r="G286">
-        <f>IF(E286&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J286" cm="1">
-        <f t="array" ref="J286:M286">(G286*A286:D286)/(1+EXP(G286*TRANSPOSE($I$2:$I$5)*A286:D286))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K286">
-        <v>47.5</v>
-      </c>
-      <c r="L286">
-        <v>49</v>
-      </c>
-      <c r="M286">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>1</v>
       </c>
@@ -10259,25 +5382,8 @@
       <c r="E287" s="3">
         <v>92</v>
       </c>
-      <c r="G287">
-        <f>IF(E287&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J287" cm="1">
-        <f t="array" ref="J287:M287">(G287*A287:D287)/(1+EXP(G287*TRANSPOSE($I$2:$I$5)*A287:D287))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K287">
-        <v>47.5</v>
-      </c>
-      <c r="L287">
-        <v>47</v>
-      </c>
-      <c r="M287">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>1</v>
       </c>
@@ -10293,25 +5399,8 @@
       <c r="E288" s="3">
         <v>92</v>
       </c>
-      <c r="G288">
-        <f>IF(E288&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J288" cm="1">
-        <f t="array" ref="J288:M288">(G288*A288:D288)/(1+EXP(G288*TRANSPOSE($I$2:$I$5)*A288:D288))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K288">
-        <v>41</v>
-      </c>
-      <c r="L288">
-        <v>48</v>
-      </c>
-      <c r="M288">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>1</v>
       </c>
@@ -10327,25 +5416,8 @@
       <c r="E289" s="3">
         <v>92</v>
       </c>
-      <c r="G289">
-        <f>IF(E289&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J289" cm="1">
-        <f t="array" ref="J289:M289">(G289*A289:D289)/(1+EXP(G289*TRANSPOSE($I$2:$I$5)*A289:D289))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K289">
-        <v>47.5</v>
-      </c>
-      <c r="L289">
-        <v>49</v>
-      </c>
-      <c r="M289">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>1</v>
       </c>
@@ -10361,25 +5433,8 @@
       <c r="E290" s="3">
         <v>93</v>
       </c>
-      <c r="G290">
-        <f>IF(E290&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J290" cm="1">
-        <f t="array" ref="J290:M290">(G290*A290:D290)/(1+EXP(G290*TRANSPOSE($I$2:$I$5)*A290:D290))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K290">
-        <v>50</v>
-      </c>
-      <c r="L290">
-        <v>48</v>
-      </c>
-      <c r="M290">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>1</v>
       </c>
@@ -10395,25 +5450,8 @@
       <c r="E291" s="4">
         <v>93</v>
       </c>
-      <c r="G291">
-        <f>IF(E291&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J291" cm="1">
-        <f t="array" ref="J291:M291">(G291*A291:D291)/(1+EXP(G291*TRANSPOSE($I$2:$I$5)*A291:D291))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K291">
-        <v>43.5</v>
-      </c>
-      <c r="L291">
-        <v>50</v>
-      </c>
-      <c r="M291">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>1</v>
       </c>
@@ -10429,25 +5467,8 @@
       <c r="E292" s="4">
         <v>93</v>
       </c>
-      <c r="G292">
-        <f>IF(E292&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J292" cm="1">
-        <f t="array" ref="J292:M292">(G292*A292:D292)/(1+EXP(G292*TRANSPOSE($I$2:$I$5)*A292:D292))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K292">
-        <v>45.5</v>
-      </c>
-      <c r="L292">
-        <v>49.5</v>
-      </c>
-      <c r="M292">
-        <v>44.5</v>
-      </c>
-    </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>1</v>
       </c>
@@ -10463,25 +5484,8 @@
       <c r="E293" s="3">
         <v>93</v>
       </c>
-      <c r="G293">
-        <f>IF(E293&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J293" cm="1">
-        <f t="array" ref="J293:M293">(G293*A293:D293)/(1+EXP(G293*TRANSPOSE($I$2:$I$5)*A293:D293))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K293">
-        <v>48</v>
-      </c>
-      <c r="L293">
-        <v>47</v>
-      </c>
-      <c r="M293">
-        <v>47.5</v>
-      </c>
-    </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>1</v>
       </c>
@@ -10497,25 +5501,8 @@
       <c r="E294" s="3">
         <v>93</v>
       </c>
-      <c r="G294">
-        <f>IF(E294&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J294" cm="1">
-        <f t="array" ref="J294:M294">(G294*A294:D294)/(1+EXP(G294*TRANSPOSE($I$2:$I$5)*A294:D294))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K294">
-        <v>48</v>
-      </c>
-      <c r="L294">
-        <v>44.5</v>
-      </c>
-      <c r="M294">
-        <v>44.5</v>
-      </c>
-    </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>1</v>
       </c>
@@ -10531,25 +5518,8 @@
       <c r="E295" s="4">
         <v>93</v>
       </c>
-      <c r="G295">
-        <f>IF(E295&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J295" cm="1">
-        <f t="array" ref="J295:M295">(G295*A295:D295)/(1+EXP(G295*TRANSPOSE($I$2:$I$5)*A295:D295))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K295">
-        <v>44</v>
-      </c>
-      <c r="L295">
-        <v>50</v>
-      </c>
-      <c r="M295">
-        <v>49.5</v>
-      </c>
-    </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>1</v>
       </c>
@@ -10565,25 +5535,8 @@
       <c r="E296" s="3">
         <v>93</v>
       </c>
-      <c r="G296">
-        <f>IF(E296&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J296" cm="1">
-        <f t="array" ref="J296:M296">(G296*A296:D296)/(1+EXP(G296*TRANSPOSE($I$2:$I$5)*A296:D296))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K296">
-        <v>47</v>
-      </c>
-      <c r="L296">
-        <v>50</v>
-      </c>
-      <c r="M296">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>1</v>
       </c>
@@ -10599,25 +5552,8 @@
       <c r="E297" s="3">
         <v>93</v>
       </c>
-      <c r="G297">
-        <f>IF(E297&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J297" cm="1">
-        <f t="array" ref="J297:M297">(G297*A297:D297)/(1+EXP(G297*TRANSPOSE($I$2:$I$5)*A297:D297))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K297">
-        <v>45</v>
-      </c>
-      <c r="L297">
-        <v>34</v>
-      </c>
-      <c r="M297">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>1</v>
       </c>
@@ -10633,25 +5569,8 @@
       <c r="E298" s="4">
         <v>93</v>
       </c>
-      <c r="G298">
-        <f>IF(E298&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J298" cm="1">
-        <f t="array" ref="J298:M298">(G298*A298:D298)/(1+EXP(G298*TRANSPOSE($I$2:$I$5)*A298:D298))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K298">
-        <v>49</v>
-      </c>
-      <c r="L298">
-        <v>44.5</v>
-      </c>
-      <c r="M298">
-        <v>43.5</v>
-      </c>
-    </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>1</v>
       </c>
@@ -10667,25 +5586,8 @@
       <c r="E299" s="3">
         <v>93</v>
       </c>
-      <c r="G299">
-        <f>IF(E299&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J299" cm="1">
-        <f t="array" ref="J299:M299">(G299*A299:D299)/(1+EXP(G299*TRANSPOSE($I$2:$I$5)*A299:D299))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K299">
-        <v>47</v>
-      </c>
-      <c r="L299">
-        <v>44.5</v>
-      </c>
-      <c r="M299">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>1</v>
       </c>
@@ -10701,25 +5603,8 @@
       <c r="E300" s="4">
         <v>93</v>
       </c>
-      <c r="G300">
-        <f>IF(E300&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J300" cm="1">
-        <f t="array" ref="J300:M300">(G300*A300:D300)/(1+EXP(G300*TRANSPOSE($I$2:$I$5)*A300:D300))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K300">
-        <v>46.5</v>
-      </c>
-      <c r="L300">
-        <v>49.5</v>
-      </c>
-      <c r="M300">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>1</v>
       </c>
@@ -10735,25 +5620,8 @@
       <c r="E301" s="3">
         <v>93</v>
       </c>
-      <c r="G301">
-        <f>IF(E301&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J301" cm="1">
-        <f t="array" ref="J301:M301">(G301*A301:D301)/(1+EXP(G301*TRANSPOSE($I$2:$I$5)*A301:D301))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K301">
-        <v>44.5</v>
-      </c>
-      <c r="L301">
-        <v>49</v>
-      </c>
-      <c r="M301">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>1</v>
       </c>
@@ -10769,25 +5637,8 @@
       <c r="E302" s="3">
         <v>94</v>
       </c>
-      <c r="G302">
-        <f>IF(E302&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J302" cm="1">
-        <f t="array" ref="J302:M302">(G302*A302:D302)/(1+EXP(G302*TRANSPOSE($I$2:$I$5)*A302:D302))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K302">
-        <v>43</v>
-      </c>
-      <c r="L302">
-        <v>45.5</v>
-      </c>
-      <c r="M302">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>1</v>
       </c>
@@ -10803,25 +5654,8 @@
       <c r="E303" s="4">
         <v>94</v>
       </c>
-      <c r="G303">
-        <f>IF(E303&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J303" cm="1">
-        <f t="array" ref="J303:M303">(G303*A303:D303)/(1+EXP(G303*TRANSPOSE($I$2:$I$5)*A303:D303))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K303">
-        <v>45.5</v>
-      </c>
-      <c r="L303">
-        <v>48.5</v>
-      </c>
-      <c r="M303">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>1</v>
       </c>
@@ -10837,25 +5671,8 @@
       <c r="E304" s="3">
         <v>94</v>
       </c>
-      <c r="G304">
-        <f>IF(E304&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J304" cm="1">
-        <f t="array" ref="J304:M304">(G304*A304:D304)/(1+EXP(G304*TRANSPOSE($I$2:$I$5)*A304:D304))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K304">
-        <v>45</v>
-      </c>
-      <c r="L304">
-        <v>48.5</v>
-      </c>
-      <c r="M304">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>1</v>
       </c>
@@ -10871,25 +5688,8 @@
       <c r="E305" s="3">
         <v>94</v>
       </c>
-      <c r="G305">
-        <f>IF(E305&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J305" cm="1">
-        <f t="array" ref="J305:M305">(G305*A305:D305)/(1+EXP(G305*TRANSPOSE($I$2:$I$5)*A305:D305))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K305">
-        <v>49.5</v>
-      </c>
-      <c r="L305">
-        <v>43.5</v>
-      </c>
-      <c r="M305">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>1</v>
       </c>
@@ -10905,25 +5705,8 @@
       <c r="E306" s="4">
         <v>94</v>
       </c>
-      <c r="G306">
-        <f>IF(E306&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J306" cm="1">
-        <f t="array" ref="J306:M306">(G306*A306:D306)/(1+EXP(G306*TRANSPOSE($I$2:$I$5)*A306:D306))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K306">
-        <v>48</v>
-      </c>
-      <c r="L306">
-        <v>50</v>
-      </c>
-      <c r="M306">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>1</v>
       </c>
@@ -10939,25 +5722,8 @@
       <c r="E307" s="4">
         <v>94</v>
       </c>
-      <c r="G307">
-        <f>IF(E307&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J307" cm="1">
-        <f t="array" ref="J307:M307">(G307*A307:D307)/(1+EXP(G307*TRANSPOSE($I$2:$I$5)*A307:D307))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K307">
-        <v>46.5</v>
-      </c>
-      <c r="L307">
-        <v>50</v>
-      </c>
-      <c r="M307">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>1</v>
       </c>
@@ -10973,25 +5739,8 @@
       <c r="E308" s="3">
         <v>95</v>
       </c>
-      <c r="G308">
-        <f>IF(E308&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J308" cm="1">
-        <f t="array" ref="J308:M308">(G308*A308:D308)/(1+EXP(G308*TRANSPOSE($I$2:$I$5)*A308:D308))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K308">
-        <v>47.5</v>
-      </c>
-      <c r="L308">
-        <v>50</v>
-      </c>
-      <c r="M308">
-        <v>44.5</v>
-      </c>
-    </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>1</v>
       </c>
@@ -11007,25 +5756,8 @@
       <c r="E309" s="4">
         <v>95</v>
       </c>
-      <c r="G309">
-        <f>IF(E309&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J309" cm="1">
-        <f t="array" ref="J309:M309">(G309*A309:D309)/(1+EXP(G309*TRANSPOSE($I$2:$I$5)*A309:D309))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K309">
-        <v>48.5</v>
-      </c>
-      <c r="L309">
-        <v>50</v>
-      </c>
-      <c r="M309">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>1</v>
       </c>
@@ -11041,25 +5773,8 @@
       <c r="E310" s="4">
         <v>95</v>
       </c>
-      <c r="G310">
-        <f>IF(E310&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J310" cm="1">
-        <f t="array" ref="J310:M310">(G310*A310:D310)/(1+EXP(G310*TRANSPOSE($I$2:$I$5)*A310:D310))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K310">
-        <v>44</v>
-      </c>
-      <c r="L310">
-        <v>49</v>
-      </c>
-      <c r="M310">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>1</v>
       </c>
@@ -11075,25 +5790,8 @@
       <c r="E311" s="4">
         <v>95</v>
       </c>
-      <c r="G311">
-        <f>IF(E311&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J311" cm="1">
-        <f t="array" ref="J311:M311">(G311*A311:D311)/(1+EXP(G311*TRANSPOSE($I$2:$I$5)*A311:D311))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K311">
-        <v>48.5</v>
-      </c>
-      <c r="L311">
-        <v>50</v>
-      </c>
-      <c r="M311">
-        <v>48.5</v>
-      </c>
-    </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>1</v>
       </c>
@@ -11109,25 +5807,8 @@
       <c r="E312" s="4">
         <v>95</v>
       </c>
-      <c r="G312">
-        <f>IF(E312&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J312" cm="1">
-        <f t="array" ref="J312:M312">(G312*A312:D312)/(1+EXP(G312*TRANSPOSE($I$2:$I$5)*A312:D312))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K312">
-        <v>48</v>
-      </c>
-      <c r="L312">
-        <v>50</v>
-      </c>
-      <c r="M312">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>1</v>
       </c>
@@ -11143,25 +5824,8 @@
       <c r="E313" s="4">
         <v>95</v>
       </c>
-      <c r="G313">
-        <f>IF(E313&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J313" cm="1">
-        <f t="array" ref="J313:M313">(G313*A313:D313)/(1+EXP(G313*TRANSPOSE($I$2:$I$5)*A313:D313))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K313">
-        <v>47.5</v>
-      </c>
-      <c r="L313">
-        <v>50</v>
-      </c>
-      <c r="M313">
-        <v>45.5</v>
-      </c>
-    </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>1</v>
       </c>
@@ -11177,25 +5841,8 @@
       <c r="E314" s="3">
         <v>96</v>
       </c>
-      <c r="G314">
-        <f>IF(E314&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J314" cm="1">
-        <f t="array" ref="J314:M314">(G314*A314:D314)/(1+EXP(G314*TRANSPOSE($I$2:$I$5)*A314:D314))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K314">
-        <v>48.5</v>
-      </c>
-      <c r="L314">
-        <v>48</v>
-      </c>
-      <c r="M314">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>1</v>
       </c>
@@ -11211,25 +5858,8 @@
       <c r="E315" s="3">
         <v>96</v>
       </c>
-      <c r="G315">
-        <f>IF(E315&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J315" cm="1">
-        <f t="array" ref="J315:M315">(G315*A315:D315)/(1+EXP(G315*TRANSPOSE($I$2:$I$5)*A315:D315))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K315">
-        <v>47</v>
-      </c>
-      <c r="L315">
-        <v>44</v>
-      </c>
-      <c r="M315">
-        <v>47.5</v>
-      </c>
-    </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>1</v>
       </c>
@@ -11245,25 +5875,8 @@
       <c r="E316" s="3">
         <v>96</v>
       </c>
-      <c r="G316">
-        <f>IF(E316&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J316" cm="1">
-        <f t="array" ref="J316:M316">(G316*A316:D316)/(1+EXP(G316*TRANSPOSE($I$2:$I$5)*A316:D316))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K316">
-        <v>50</v>
-      </c>
-      <c r="L316">
-        <v>40.5</v>
-      </c>
-      <c r="M316">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>1</v>
       </c>
@@ -11279,25 +5892,8 @@
       <c r="E317" s="3">
         <v>96</v>
       </c>
-      <c r="G317">
-        <f>IF(E317&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J317" cm="1">
-        <f t="array" ref="J317:M317">(G317*A317:D317)/(1+EXP(G317*TRANSPOSE($I$2:$I$5)*A317:D317))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K317">
-        <v>49.5</v>
-      </c>
-      <c r="L317">
-        <v>50</v>
-      </c>
-      <c r="M317">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>1</v>
       </c>
@@ -11313,25 +5909,8 @@
       <c r="E318" s="3">
         <v>96</v>
       </c>
-      <c r="G318">
-        <f>IF(E318&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J318" cm="1">
-        <f t="array" ref="J318:M318">(G318*A318:D318)/(1+EXP(G318*TRANSPOSE($I$2:$I$5)*A318:D318))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K318">
-        <v>49.5</v>
-      </c>
-      <c r="L318">
-        <v>47.5</v>
-      </c>
-      <c r="M318">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>1</v>
       </c>
@@ -11347,25 +5926,8 @@
       <c r="E319" s="4">
         <v>96</v>
       </c>
-      <c r="G319">
-        <f>IF(E319&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J319" cm="1">
-        <f t="array" ref="J319:M319">(G319*A319:D319)/(1+EXP(G319*TRANSPOSE($I$2:$I$5)*A319:D319))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K319">
-        <v>49.5</v>
-      </c>
-      <c r="L319">
-        <v>49</v>
-      </c>
-      <c r="M319">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>1</v>
       </c>
@@ -11381,23 +5943,6 @@
       <c r="E320" s="4">
         <v>96</v>
       </c>
-      <c r="G320">
-        <f>IF(E320&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J320" cm="1">
-        <f t="array" ref="J320:M320">(G320*A320:D320)/(1+EXP(G320*TRANSPOSE($I$2:$I$5)*A320:D320))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K320">
-        <v>46.5</v>
-      </c>
-      <c r="L320">
-        <v>49.5</v>
-      </c>
-      <c r="M320">
-        <v>46.5</v>
-      </c>
     </row>
     <row r="321" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A321">
@@ -11415,23 +5960,6 @@
       <c r="E321" s="3">
         <v>96</v>
       </c>
-      <c r="G321">
-        <f>IF(E321&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J321" cm="1">
-        <f t="array" ref="J321:M321">(G321*A321:D321)/(1+EXP(G321*TRANSPOSE($I$2:$I$5)*A321:D321))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K321">
-        <v>49.5</v>
-      </c>
-      <c r="L321">
-        <v>35.5</v>
-      </c>
-      <c r="M321">
-        <v>50</v>
-      </c>
     </row>
     <row r="322" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A322">
@@ -11449,23 +5977,6 @@
       <c r="E322" s="3">
         <v>96</v>
       </c>
-      <c r="G322">
-        <f>IF(E322&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J322" cm="1">
-        <f t="array" ref="J322:M322">(G322*A322:D322)/(1+EXP(G322*TRANSPOSE($I$2:$I$5)*A322:D322))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K322">
-        <v>44.5</v>
-      </c>
-      <c r="L322">
-        <v>41.5</v>
-      </c>
-      <c r="M322">
-        <v>46</v>
-      </c>
     </row>
     <row r="323" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A323">
@@ -11483,23 +5994,6 @@
       <c r="E323" s="3">
         <v>97</v>
       </c>
-      <c r="G323">
-        <f>IF(E323&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J323" cm="1">
-        <f t="array" ref="J323:M323">(G323*A323:D323)/(1+EXP(G323*TRANSPOSE($I$2:$I$5)*A323:D323))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K323">
-        <v>45.5</v>
-      </c>
-      <c r="L323">
-        <v>50</v>
-      </c>
-      <c r="M323">
-        <v>50</v>
-      </c>
     </row>
     <row r="324" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A324">
@@ -11517,23 +6011,6 @@
       <c r="E324" s="3">
         <v>97</v>
       </c>
-      <c r="G324">
-        <f>IF(E324&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J324" cm="1">
-        <f t="array" ref="J324:M324">(G324*A324:D324)/(1+EXP(G324*TRANSPOSE($I$2:$I$5)*A324:D324))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K324">
-        <v>45</v>
-      </c>
-      <c r="L324">
-        <v>47.5</v>
-      </c>
-      <c r="M324">
-        <v>47.5</v>
-      </c>
     </row>
     <row r="325" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A325">
@@ -11551,23 +6028,6 @@
       <c r="E325" s="4">
         <v>97</v>
       </c>
-      <c r="G325">
-        <f>IF(E325&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J325" cm="1">
-        <f t="array" ref="J325:M325">(G325*A325:D325)/(1+EXP(G325*TRANSPOSE($I$2:$I$5)*A325:D325))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K325">
-        <v>44.5</v>
-      </c>
-      <c r="L325">
-        <v>49.5</v>
-      </c>
-      <c r="M325">
-        <v>50</v>
-      </c>
     </row>
     <row r="326" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A326">
@@ -11585,23 +6045,6 @@
       <c r="E326" s="4">
         <v>97</v>
       </c>
-      <c r="G326">
-        <f>IF(E326&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J326" cm="1">
-        <f t="array" ref="J326:M326">(G326*A326:D326)/(1+EXP(G326*TRANSPOSE($I$2:$I$5)*A326:D326))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K326">
-        <v>48.5</v>
-      </c>
-      <c r="L326">
-        <v>50</v>
-      </c>
-      <c r="M326">
-        <v>50</v>
-      </c>
     </row>
     <row r="327" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A327">
@@ -11619,23 +6062,6 @@
       <c r="E327" s="3">
         <v>98</v>
       </c>
-      <c r="G327">
-        <f>IF(E327&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J327" cm="1">
-        <f t="array" ref="J327:M327">(G327*A327:D327)/(1+EXP(G327*TRANSPOSE($I$2:$I$5)*A327:D327))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K327">
-        <v>49</v>
-      </c>
-      <c r="L327">
-        <v>48</v>
-      </c>
-      <c r="M327">
-        <v>50</v>
-      </c>
     </row>
     <row r="328" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A328">
@@ -11653,23 +6079,6 @@
       <c r="E328" s="3">
         <v>99</v>
       </c>
-      <c r="G328">
-        <f>IF(E328&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J328" cm="1">
-        <f t="array" ref="J328:M328">(G328*A328:D328)/(1+EXP(G328*TRANSPOSE($I$2:$I$5)*A328:D328))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K328">
-        <v>49</v>
-      </c>
-      <c r="L328">
-        <v>49.5</v>
-      </c>
-      <c r="M328">
-        <v>50</v>
-      </c>
     </row>
     <row r="329" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A329">
@@ -11687,23 +6096,6 @@
       <c r="E329" s="4">
         <v>99</v>
       </c>
-      <c r="G329">
-        <f>IF(E329&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J329" cm="1">
-        <f t="array" ref="J329:M329">(G329*A329:D329)/(1+EXP(G329*TRANSPOSE($I$2:$I$5)*A329:D329))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K329">
-        <v>50</v>
-      </c>
-      <c r="L329">
-        <v>49.5</v>
-      </c>
-      <c r="M329">
-        <v>46.5</v>
-      </c>
     </row>
     <row r="330" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A330">
@@ -11721,23 +6113,6 @@
       <c r="E330" s="3">
         <v>99</v>
       </c>
-      <c r="G330">
-        <f>IF(E330&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J330" cm="1">
-        <f t="array" ref="J330:M330">(G330*A330:D330)/(1+EXP(G330*TRANSPOSE($I$2:$I$5)*A330:D330))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K330">
-        <v>47.5</v>
-      </c>
-      <c r="L330">
-        <v>50</v>
-      </c>
-      <c r="M330">
-        <v>50</v>
-      </c>
     </row>
     <row r="331" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A331">
@@ -11755,23 +6130,6 @@
       <c r="E331" s="3">
         <v>99</v>
       </c>
-      <c r="G331">
-        <f>IF(E331&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J331" cm="1">
-        <f t="array" ref="J331:M331">(G331*A331:D331)/(1+EXP(G331*TRANSPOSE($I$2:$I$5)*A331:D331))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K331">
-        <v>49</v>
-      </c>
-      <c r="L331">
-        <v>48.5</v>
-      </c>
-      <c r="M331">
-        <v>50</v>
-      </c>
     </row>
     <row r="332" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A332">
@@ -11788,65 +6146,11 @@
       </c>
       <c r="E332" s="3">
         <v>100</v>
-      </c>
-      <c r="G332">
-        <f>IF(E332&gt;=70, 1, -1)</f>
-        <v>1</v>
-      </c>
-      <c r="J332" cm="1">
-        <f t="array" ref="J332:M332">(G332*A332:D332)/(1+EXP(G332*TRANSPOSE($I$2:$I$5)*A332:D332))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K332">
-        <v>48</v>
-      </c>
-      <c r="L332">
-        <v>47</v>
-      </c>
-      <c r="M332">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="333" spans="1:331" x14ac:dyDescent="0.25">
-      <c r="I333" t="s">
-        <v>12</v>
-      </c>
-      <c r="J333">
-        <f>-AVERAGE(J317:J332)</f>
-        <v>-0.5</v>
-      </c>
-      <c r="K333">
-        <f t="shared" ref="K333:M333" si="0">-AVERAGE(K317:K332)</f>
-        <v>-47.8125</v>
-      </c>
-      <c r="L333">
-        <f t="shared" si="0"/>
-        <v>-47.65625</v>
-      </c>
-      <c r="M333">
-        <f t="shared" si="0"/>
-        <v>-48.90625</v>
       </c>
     </row>
     <row r="334" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>5</v>
-      </c>
-      <c r="I334" t="s">
-        <v>13</v>
-      </c>
-      <c r="J334" cm="1">
-        <f t="array" ref="J334:M334">TRANSPOSE(I2:I5) - 0.1*J333:M333</f>
-        <v>0.05</v>
-      </c>
-      <c r="K334">
-        <v>4.78125</v>
-      </c>
-      <c r="L334">
-        <v>4.765625</v>
-      </c>
-      <c r="M334">
-        <v>4.890625</v>
       </c>
     </row>
     <row r="335" spans="1:331" x14ac:dyDescent="0.25">
@@ -15953,9 +10257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K53" sqref="K53"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
